--- a/2P sheets/all 2P/CRO_Genus_2PSummary.xlsx
+++ b/2P sheets/all 2P/CRO_Genus_2PSummary.xlsx
@@ -43,30 +43,29 @@
     <sheet name="Oulimnius" sheetId="35" state="visible" r:id="rId35"/>
     <sheet name="Paracapnia" sheetId="36" state="visible" r:id="rId36"/>
     <sheet name="Paraleptophlebia" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="Paraleptophlebiidae" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="Polycentropus" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="Probezzia" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="Prosimulium" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="Prostoia" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="Psephenus" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="Pteronarcys" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="Pycnopsyche" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="Rhagovelia" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="Rhyacophila" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="Stenelmis" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="Stenonema" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="Stylogomphus" sheetId="50" state="visible" r:id="rId50"/>
-    <sheet name="Taeniopteryx" sheetId="51" state="visible" r:id="rId51"/>
-    <sheet name="Tallaperla" sheetId="52" state="visible" r:id="rId52"/>
-    <sheet name="Tanypodinae" sheetId="53" state="visible" r:id="rId53"/>
-    <sheet name="Tanytarsini" sheetId="54" state="visible" r:id="rId54"/>
-    <sheet name="Tipula" sheetId="55" state="visible" r:id="rId55"/>
+    <sheet name="Polycentropus" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="Probezzia" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="Prosimulium" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="Prostoia" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="Psephenus" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="Pteronarcys" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="Pycnopsyche" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="Rhagovelia" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="Rhyacophila" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="Stenelmis" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="Stenonema" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="Stylogomphus" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="Taeniopteryx" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="Tallaperla" sheetId="51" state="visible" r:id="rId51"/>
+    <sheet name="Tanypodinae" sheetId="52" state="visible" r:id="rId52"/>
+    <sheet name="Tanytarsini" sheetId="53" state="visible" r:id="rId53"/>
+    <sheet name="Tipula" sheetId="54" state="visible" r:id="rId54"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t xml:space="preserve">Genus</t>
   </si>
@@ -231,9 +230,6 @@
   </si>
   <si>
     <t xml:space="preserve">Paraleptophlebia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paraleptophlebiidae</t>
   </si>
   <si>
     <t xml:space="preserve">Polycentropus</t>
@@ -7722,28 +7718,28 @@
         <v>32.2927879440258</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00316666666666667</v>
+        <v>0.000316666666666667</v>
       </c>
       <c r="F2" t="n">
         <v>-51.6684607104413</v>
       </c>
       <c r="G2" t="n">
-        <v>0.102260495156082</v>
+        <v>0.0102260495156082</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0682301353166667</v>
+        <v>0.00682301353166667</v>
       </c>
       <c r="I2" t="n">
-        <v>-3.52534606587729</v>
+        <v>-0.352534606587729</v>
       </c>
       <c r="J2" t="n">
-        <v>-24.677422461141</v>
+        <v>-2.4677422461141</v>
       </c>
       <c r="K2" t="n">
-        <v>202.997792652242</v>
+        <v>20.2997792652242</v>
       </c>
       <c r="L2" t="n">
-        <v>671.478247699327</v>
+        <v>67.1478247699327</v>
       </c>
       <c r="M2" t="n">
         <v>3.30781058713108</v>
@@ -7752,7 +7748,7 @@
         <v>1.71428571428571</v>
       </c>
       <c r="O2" t="n">
-        <v>391.695644491274</v>
+        <v>39.1695644491274</v>
       </c>
       <c r="P2" t="n">
         <v>1.92955617582646</v>
@@ -7775,28 +7771,28 @@
         <v>83.9612486544672</v>
       </c>
       <c r="E3" t="n">
-        <v>0.133293603966667</v>
+        <v>0.0133293603966667</v>
       </c>
       <c r="F3" t="n">
         <v>-10.2260495156082</v>
       </c>
       <c r="G3" t="n">
-        <v>11.1914974266954</v>
+        <v>1.11914974266954</v>
       </c>
       <c r="H3" t="n">
-        <v>0.335554274111458</v>
+        <v>0.0335554274111458</v>
       </c>
       <c r="I3" t="n">
-        <v>-3.43139462223773</v>
+        <v>-0.343139462223773</v>
       </c>
       <c r="J3" t="n">
-        <v>-24.0197623556641</v>
+        <v>-2.40197623556641</v>
       </c>
       <c r="K3" t="n">
-        <v>202.997792652242</v>
+        <v>20.2997792652242</v>
       </c>
       <c r="L3" t="n">
-        <v>671.478247699327</v>
+        <v>67.1478247699327</v>
       </c>
       <c r="M3" t="n">
         <v>3.30781058713108</v>
@@ -7805,7 +7801,7 @@
         <v>1.71428571428571</v>
       </c>
       <c r="O3" t="n">
-        <v>391.695644491274</v>
+        <v>39.1695644491274</v>
       </c>
       <c r="P3" t="n">
         <v>1.92955617582646</v>
@@ -7828,28 +7824,28 @@
         <v>94.1872981700754</v>
       </c>
       <c r="E4" t="n">
-        <v>0.53781494425625</v>
+        <v>0.053781494425625</v>
       </c>
       <c r="F4" t="n">
         <v>69.0706853247219</v>
       </c>
       <c r="G4" t="n">
-        <v>50.6553365149859</v>
+        <v>5.06553365149859</v>
       </c>
       <c r="H4" t="n">
-        <v>0.464592808244792</v>
+        <v>0.0464592808244792</v>
       </c>
       <c r="I4" t="n">
-        <v>32.0897436624049</v>
+        <v>3.20897436624049</v>
       </c>
       <c r="J4" t="n">
-        <v>224.628205636834</v>
+        <v>22.4628205636834</v>
       </c>
       <c r="K4" t="n">
-        <v>202.997792652242</v>
+        <v>20.2997792652242</v>
       </c>
       <c r="L4" t="n">
-        <v>671.478247699327</v>
+        <v>67.1478247699327</v>
       </c>
       <c r="M4" t="n">
         <v>3.30781058713108</v>
@@ -7858,7 +7854,7 @@
         <v>1.71428571428571</v>
       </c>
       <c r="O4" t="n">
-        <v>391.695644491274</v>
+        <v>39.1695644491274</v>
       </c>
       <c r="P4" t="n">
         <v>1.92955617582646</v>
@@ -7881,28 +7877,28 @@
         <v>25.1166128453534</v>
       </c>
       <c r="E5" t="n">
-        <v>0.391370672233333</v>
+        <v>0.0391370672233333</v>
       </c>
       <c r="F5" t="n">
         <v>3.5880875493362</v>
       </c>
       <c r="G5" t="n">
-        <v>9.82990565351035</v>
+        <v>0.982990565351035</v>
       </c>
       <c r="H5" t="n">
-        <v>0.540689752866667</v>
+        <v>0.0540689752866667</v>
       </c>
       <c r="I5" t="n">
-        <v>1.94004217031456</v>
+        <v>0.194004217031456</v>
       </c>
       <c r="J5" t="n">
-        <v>13.5802951922019</v>
+        <v>1.35802951922019</v>
       </c>
       <c r="K5" t="n">
-        <v>202.997792652242</v>
+        <v>20.2997792652242</v>
       </c>
       <c r="L5" t="n">
-        <v>671.478247699327</v>
+        <v>67.1478247699327</v>
       </c>
       <c r="M5" t="n">
         <v>3.30781058713108</v>
@@ -7911,7 +7907,7 @@
         <v>1.71428571428571</v>
       </c>
       <c r="O5" t="n">
-        <v>391.695644491274</v>
+        <v>39.1695644491274</v>
       </c>
       <c r="P5" t="n">
         <v>1.92955617582646</v>
@@ -7934,28 +7930,28 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6900088335</v>
+        <v>0.06900088335</v>
       </c>
       <c r="F6" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G6" t="n">
-        <v>14.8548726264801</v>
+        <v>1.48548726264801</v>
       </c>
       <c r="H6" t="n">
-        <v>1.96578268625</v>
+        <v>0.196578268625</v>
       </c>
       <c r="I6" t="n">
-        <v>21.1602011437029</v>
+        <v>2.11602011437029</v>
       </c>
       <c r="J6" t="n">
-        <v>148.12140800592</v>
+        <v>14.812140800592</v>
       </c>
       <c r="K6" t="n">
-        <v>202.997792652242</v>
+        <v>20.2997792652242</v>
       </c>
       <c r="L6" t="n">
-        <v>671.478247699327</v>
+        <v>67.1478247699327</v>
       </c>
       <c r="M6" t="n">
         <v>3.30781058713108</v>
@@ -7964,7 +7960,7 @@
         <v>1.71428571428571</v>
       </c>
       <c r="O6" t="n">
-        <v>391.695644491274</v>
+        <v>39.1695644491274</v>
       </c>
       <c r="P6" t="n">
         <v>1.92955617582646</v>
@@ -7987,16 +7983,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E7" t="n">
-        <v>3.241556539</v>
+        <v>0.3241556539</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>34.8929659741658</v>
+        <v>3.48929659741658</v>
       </c>
       <c r="H7" t="n">
-        <v>5.405104081</v>
+        <v>0.5405104081</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -8005,10 +8001,10 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>202.997792652242</v>
+        <v>20.2997792652242</v>
       </c>
       <c r="L7" t="n">
-        <v>671.478247699327</v>
+        <v>67.1478247699327</v>
       </c>
       <c r="M7" t="n">
         <v>3.30781058713108</v>
@@ -8017,7 +8013,7 @@
         <v>1.71428571428571</v>
       </c>
       <c r="O7" t="n">
-        <v>391.695644491274</v>
+        <v>39.1695644491274</v>
       </c>
       <c r="P7" t="n">
         <v>1.92955617582646</v>
@@ -8040,28 +8036,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E8" t="n">
-        <v>7.568651623</v>
+        <v>0.7568651623</v>
       </c>
       <c r="F8" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G8" t="n">
-        <v>81.4709539612487</v>
+        <v>8.14709539612487</v>
       </c>
       <c r="H8" t="n">
-        <v>3.7843258115</v>
+        <v>0.37843258115</v>
       </c>
       <c r="I8" t="n">
-        <v>40.7354769806243</v>
+        <v>4.07354769806243</v>
       </c>
       <c r="J8" t="n">
-        <v>285.14833886437</v>
+        <v>28.514833886437</v>
       </c>
       <c r="K8" t="n">
-        <v>202.997792652242</v>
+        <v>20.2997792652242</v>
       </c>
       <c r="L8" t="n">
-        <v>671.478247699327</v>
+        <v>67.1478247699327</v>
       </c>
       <c r="M8" t="n">
         <v>3.30781058713108</v>
@@ -8070,7 +8066,7 @@
         <v>1.71428571428571</v>
       </c>
       <c r="O8" t="n">
-        <v>391.695644491274</v>
+        <v>39.1695644491274</v>
       </c>
       <c r="P8" t="n">
         <v>1.92955617582646</v>
@@ -10219,40 +10215,40 @@
         <v>92.5726587728741</v>
       </c>
       <c r="E2" t="n">
-        <v>0.246994666345</v>
+        <v>0.0246994666345</v>
       </c>
       <c r="F2" t="n">
         <v>-23.1431646932185</v>
       </c>
       <c r="G2" t="n">
-        <v>22.8649529662756</v>
+        <v>2.28649529662756</v>
       </c>
       <c r="H2" t="n">
-        <v>0.548704630569</v>
+        <v>0.0548704630569</v>
       </c>
       <c r="I2" t="n">
-        <v>-12.69876163319</v>
+        <v>-1.269876163319</v>
       </c>
       <c r="J2" t="n">
-        <v>-88.89133143233</v>
+        <v>-8.889133143233</v>
       </c>
       <c r="K2" t="n">
-        <v>1017.62395612937</v>
+        <v>102.171133890694</v>
       </c>
       <c r="L2" t="n">
-        <v>3277.22932299318</v>
+        <v>334.554829832135</v>
       </c>
       <c r="M2" t="n">
-        <v>3.22047186807436</v>
+        <v>3.27445548553911</v>
       </c>
       <c r="N2" t="n">
         <v>1.71428571428571</v>
       </c>
       <c r="O2" t="n">
-        <v>1911.71710507936</v>
+        <v>195.156984068746</v>
       </c>
       <c r="P2" t="n">
-        <v>1.87860858971004</v>
+        <v>1.91009903323115</v>
       </c>
       <c r="Q2" t="n">
         <v>0.062142656685994</v>
@@ -10272,40 +10268,40 @@
         <v>115.715823466093</v>
       </c>
       <c r="E3" t="n">
-        <v>0.850414594793</v>
+        <v>0.0850414594793</v>
       </c>
       <c r="F3" t="n">
-        <v>-59.2034445640473</v>
+        <v>-67.2766415500538</v>
       </c>
       <c r="G3" t="n">
-        <v>98.4064251240554</v>
+        <v>9.84064251240554</v>
       </c>
       <c r="H3" t="n">
-        <v>1.686369027754</v>
+        <v>0.1641897712004</v>
       </c>
       <c r="I3" t="n">
-        <v>-99.8388552491604</v>
+        <v>-11.0461363832347</v>
       </c>
       <c r="J3" t="n">
-        <v>-698.871986744123</v>
+        <v>-77.3229546826426</v>
       </c>
       <c r="K3" t="n">
-        <v>1017.62395612937</v>
+        <v>102.171133890694</v>
       </c>
       <c r="L3" t="n">
-        <v>3277.22932299318</v>
+        <v>334.554829832135</v>
       </c>
       <c r="M3" t="n">
-        <v>3.22047186807436</v>
+        <v>3.27445548553911</v>
       </c>
       <c r="N3" t="n">
         <v>1.71428571428571</v>
       </c>
       <c r="O3" t="n">
-        <v>1911.71710507936</v>
+        <v>195.156984068746</v>
       </c>
       <c r="P3" t="n">
-        <v>1.87860858971004</v>
+        <v>1.91009903323115</v>
       </c>
       <c r="Q3" t="n">
         <v>0.062142656685994</v>
@@ -10322,43 +10318,43 @@
         <v>18</v>
       </c>
       <c r="D4" t="n">
-        <v>174.91926803014</v>
+        <v>182.992465016146</v>
       </c>
       <c r="E4" t="n">
-        <v>2.522323460715</v>
+        <v>0.2433380829215</v>
       </c>
       <c r="F4" t="n">
-        <v>133.656261212774</v>
+        <v>141.72945819878</v>
       </c>
       <c r="G4" t="n">
-        <v>441.202973483517</v>
+        <v>44.5290356261087</v>
       </c>
       <c r="H4" t="n">
-        <v>1.9896391891325</v>
+        <v>0.19451678733825</v>
       </c>
       <c r="I4" t="n">
-        <v>265.927735181864</v>
+        <v>27.5687588800175</v>
       </c>
       <c r="J4" t="n">
-        <v>1861.49414627305</v>
+        <v>192.981312160122</v>
       </c>
       <c r="K4" t="n">
-        <v>1017.62395612937</v>
+        <v>102.171133890694</v>
       </c>
       <c r="L4" t="n">
-        <v>3277.22932299318</v>
+        <v>334.554829832135</v>
       </c>
       <c r="M4" t="n">
-        <v>3.22047186807436</v>
+        <v>3.27445548553911</v>
       </c>
       <c r="N4" t="n">
         <v>1.71428571428571</v>
       </c>
       <c r="O4" t="n">
-        <v>1911.71710507936</v>
+        <v>195.156984068746</v>
       </c>
       <c r="P4" t="n">
-        <v>1.87860858971004</v>
+        <v>1.91009903323115</v>
       </c>
       <c r="Q4" t="n">
         <v>0.062142656685994</v>
@@ -10378,40 +10374,40 @@
         <v>41.2630068173663</v>
       </c>
       <c r="E5" t="n">
-        <v>1.45695491755</v>
+        <v>0.145695491755</v>
       </c>
       <c r="F5" t="n">
         <v>-28.7047003946896</v>
       </c>
       <c r="G5" t="n">
-        <v>60.1183406954611</v>
+        <v>6.01183406954611</v>
       </c>
       <c r="H5" t="n">
-        <v>3.031574864975</v>
+        <v>0.3031574864975</v>
       </c>
       <c r="I5" t="n">
-        <v>-87.0204482231791</v>
+        <v>-8.7020448223179</v>
       </c>
       <c r="J5" t="n">
-        <v>-609.143137562254</v>
+        <v>-60.9143137562253</v>
       </c>
       <c r="K5" t="n">
-        <v>1017.62395612937</v>
+        <v>102.171133890694</v>
       </c>
       <c r="L5" t="n">
-        <v>3277.22932299318</v>
+        <v>334.554829832135</v>
       </c>
       <c r="M5" t="n">
-        <v>3.22047186807436</v>
+        <v>3.27445548553911</v>
       </c>
       <c r="N5" t="n">
         <v>1.71428571428571</v>
       </c>
       <c r="O5" t="n">
-        <v>1911.71710507936</v>
+        <v>195.156984068746</v>
       </c>
       <c r="P5" t="n">
-        <v>1.87860858971004</v>
+        <v>1.91009903323115</v>
       </c>
       <c r="Q5" t="n">
         <v>0.062142656685994</v>
@@ -10431,40 +10427,40 @@
         <v>69.967707212056</v>
       </c>
       <c r="E6" t="n">
-        <v>4.6061948124</v>
+        <v>0.46061948124</v>
       </c>
       <c r="F6" t="n">
         <v>48.4391819160388</v>
       </c>
       <c r="G6" t="n">
-        <v>322.284889995694</v>
+        <v>32.2284889995694</v>
       </c>
       <c r="H6" t="n">
-        <v>3.4142652822</v>
+        <v>0.34142652822</v>
       </c>
       <c r="I6" t="n">
-        <v>165.384217114101</v>
+        <v>16.5384217114101</v>
       </c>
       <c r="J6" t="n">
-        <v>1157.68951979871</v>
+        <v>115.768951979871</v>
       </c>
       <c r="K6" t="n">
-        <v>1017.62395612937</v>
+        <v>102.171133890694</v>
       </c>
       <c r="L6" t="n">
-        <v>3277.22932299318</v>
+        <v>334.554829832135</v>
       </c>
       <c r="M6" t="n">
-        <v>3.22047186807436</v>
+        <v>3.27445548553911</v>
       </c>
       <c r="N6" t="n">
         <v>1.71428571428571</v>
       </c>
       <c r="O6" t="n">
-        <v>1911.71710507936</v>
+        <v>195.156984068746</v>
       </c>
       <c r="P6" t="n">
-        <v>1.87860858971004</v>
+        <v>1.91009903323115</v>
       </c>
       <c r="Q6" t="n">
         <v>0.062142656685994</v>
@@ -10484,40 +10480,40 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E7" t="n">
-        <v>2.222335752</v>
+        <v>0.2222335752</v>
       </c>
       <c r="F7" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G7" t="n">
-        <v>47.8436114531755</v>
+        <v>4.78436114531755</v>
       </c>
       <c r="H7" t="n">
-        <v>2.26790119</v>
+        <v>0.226790119</v>
       </c>
       <c r="I7" t="n">
-        <v>24.4122840688913</v>
+        <v>2.44122840688913</v>
       </c>
       <c r="J7" t="n">
-        <v>170.885988482239</v>
+        <v>17.0885988482239</v>
       </c>
       <c r="K7" t="n">
-        <v>1017.62395612937</v>
+        <v>102.171133890694</v>
       </c>
       <c r="L7" t="n">
-        <v>3277.22932299318</v>
+        <v>334.554829832135</v>
       </c>
       <c r="M7" t="n">
-        <v>3.22047186807436</v>
+        <v>3.27445548553911</v>
       </c>
       <c r="N7" t="n">
         <v>1.71428571428571</v>
       </c>
       <c r="O7" t="n">
-        <v>1911.71710507936</v>
+        <v>195.156984068746</v>
       </c>
       <c r="P7" t="n">
-        <v>1.87860858971004</v>
+        <v>1.91009903323115</v>
       </c>
       <c r="Q7" t="n">
         <v>0.062142656685994</v>
@@ -10537,40 +10533,40 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E8" t="n">
-        <v>2.313466628</v>
+        <v>0.2313466628</v>
       </c>
       <c r="F8" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G8" t="n">
-        <v>24.9027624111948</v>
+        <v>2.49027624111948</v>
       </c>
       <c r="H8" t="n">
-        <v>1.156733314</v>
+        <v>0.1156733314</v>
       </c>
       <c r="I8" t="n">
-        <v>12.4513812055974</v>
+        <v>1.24513812055974</v>
       </c>
       <c r="J8" t="n">
-        <v>87.1596684391819</v>
+        <v>8.71596684391819</v>
       </c>
       <c r="K8" t="n">
-        <v>1017.62395612937</v>
+        <v>102.171133890694</v>
       </c>
       <c r="L8" t="n">
-        <v>3277.22932299318</v>
+        <v>334.554829832135</v>
       </c>
       <c r="M8" t="n">
-        <v>3.22047186807436</v>
+        <v>3.27445548553911</v>
       </c>
       <c r="N8" t="n">
         <v>1.71428571428571</v>
       </c>
       <c r="O8" t="n">
-        <v>1911.71710507936</v>
+        <v>195.156984068746</v>
       </c>
       <c r="P8" t="n">
-        <v>1.87860858971004</v>
+        <v>1.91009903323115</v>
       </c>
       <c r="Q8" t="n">
         <v>0.062142656685994</v>
@@ -10648,52 +10644,105 @@
         <v>55</v>
       </c>
       <c r="B2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.7642626480086</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.114512328</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1.23264077502691</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.175844559</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>3.78567403659849</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2.55303326157158</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.674393314609183</v>
+      </c>
+      <c r="N2" t="n">
+        <v>6</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.425505543595264</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.112398885768197</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.104017618157072</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="n">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="n">
-        <v>32.2927879440258</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.825956452</v>
-      </c>
-      <c r="F2" t="n">
-        <v>32.2927879440258</v>
-      </c>
-      <c r="G2" t="n">
-        <v>26.672436555436</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.412978226</v>
-      </c>
-      <c r="I2" t="n">
-        <v>13.336218277718</v>
-      </c>
-      <c r="J2" t="n">
-        <v>13.336218277718</v>
-      </c>
-      <c r="K2" t="n">
-        <v>26.672436555436</v>
-      </c>
-      <c r="L2" t="n">
-        <v>13.336218277718</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N2" t="n">
-        <v>12</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.11135152314316</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.0416666666666667</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10.7642626480086</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.23717679</v>
+      </c>
+      <c r="F3" t="n">
+        <v>10.7642626480086</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2.55303326157158</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.118588395</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1.27651663078579</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2.55303326157158</v>
+      </c>
+      <c r="K3" t="n">
+        <v>3.78567403659849</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2.55303326157158</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.674393314609183</v>
+      </c>
+      <c r="N3" t="n">
+        <v>6</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.425505543595264</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.112398885768197</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.104017618157072</v>
       </c>
     </row>
   </sheetData>
@@ -10768,52 +10817,52 @@
         <v>56</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>10.7642626480086</v>
+        <v>32.2927879440258</v>
       </c>
       <c r="E2" t="n">
-        <v>0.114512328</v>
+        <v>0.0465126887</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>21.5285252960172</v>
       </c>
       <c r="G2" t="n">
-        <v>1.23264077502691</v>
+        <v>1.50202439289559</v>
       </c>
       <c r="H2" t="n">
-        <v>0.175844559</v>
+        <v>0.035246414805</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.758803332723359</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>2.27640999817008</v>
       </c>
       <c r="K2" t="n">
-        <v>3.78567403659849</v>
+        <v>2.13337965608181</v>
       </c>
       <c r="L2" t="n">
-        <v>2.55303326157158</v>
+        <v>2.83625009031216</v>
       </c>
       <c r="M2" t="n">
-        <v>0.674393314609183</v>
+        <v>1.32946336214777</v>
       </c>
       <c r="N2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O2" t="n">
-        <v>0.425505543595264</v>
+        <v>0.709062522578041</v>
       </c>
       <c r="P2" t="n">
-        <v>0.112398885768197</v>
+        <v>0.332365840536941</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.104017618157072</v>
+        <v>-0.0163205943723955</v>
       </c>
     </row>
     <row r="3">
@@ -10821,52 +10870,105 @@
         <v>56</v>
       </c>
       <c r="B3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10.7642626480086</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.02398014091</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.258128535091496</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.029326451975</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.13337965608181</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2.83625009031216</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.32946336214777</v>
+      </c>
+      <c r="N3" t="n">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="n">
-        <v>10.7642626480086</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.23717679</v>
-      </c>
-      <c r="F3" t="n">
-        <v>10.7642626480086</v>
-      </c>
-      <c r="G3" t="n">
-        <v>2.55303326157158</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.118588395</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1.27651663078579</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2.55303326157158</v>
-      </c>
-      <c r="K3" t="n">
-        <v>3.78567403659849</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2.55303326157158</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.674393314609183</v>
-      </c>
-      <c r="N3" t="n">
-        <v>6</v>
-      </c>
       <c r="O3" t="n">
-        <v>0.425505543595264</v>
+        <v>0.709062522578041</v>
       </c>
       <c r="P3" t="n">
-        <v>0.112398885768197</v>
+        <v>0.332365840536941</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.104017618157072</v>
+        <v>-0.0163205943723955</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" t="n">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10.7642626480086</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.03467276304</v>
+      </c>
+      <c r="F4" t="n">
+        <v>10.7642626480086</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.373226728094726</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.01733638152</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.186613364047363</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.559840092142088</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.13337965608181</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2.83625009031216</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.32946336214777</v>
+      </c>
+      <c r="N4" t="n">
+        <v>4</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.709062522578041</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.332365840536941</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>-0.0163205943723955</v>
       </c>
     </row>
   </sheetData>
@@ -10950,28 +11052,28 @@
         <v>32.2927879440258</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0186</v>
+        <v>0.00186</v>
       </c>
       <c r="F2" t="n">
         <v>-23.681377825619</v>
       </c>
       <c r="G2" t="n">
-        <v>0.60064585575888</v>
+        <v>0.060064585575888</v>
       </c>
       <c r="H2" t="n">
-        <v>0.10925101853</v>
+        <v>0.010925101853</v>
       </c>
       <c r="I2" t="n">
-        <v>-2.58721464764263</v>
+        <v>-0.258721464764263</v>
       </c>
       <c r="J2" t="n">
-        <v>-10.3488585905705</v>
+        <v>-1.03488585905705</v>
       </c>
       <c r="K2" t="n">
-        <v>33.9516422186437</v>
+        <v>3.39516422186437</v>
       </c>
       <c r="L2" t="n">
-        <v>81.0436103838967</v>
+        <v>8.10436103838967</v>
       </c>
       <c r="M2" t="n">
         <v>2.38703064381945</v>
@@ -10980,7 +11082,7 @@
         <v>3</v>
       </c>
       <c r="O2" t="n">
-        <v>27.0145367946322</v>
+        <v>2.70145367946322</v>
       </c>
       <c r="P2" t="n">
         <v>0.79567688127315</v>
@@ -11003,28 +11105,28 @@
         <v>55.9741657696448</v>
       </c>
       <c r="E3" t="n">
-        <v>0.19990203706</v>
+        <v>0.019990203706</v>
       </c>
       <c r="F3" t="n">
         <v>45.2099031216362</v>
       </c>
       <c r="G3" t="n">
-        <v>11.1893497600861</v>
+        <v>1.11893497600861</v>
       </c>
       <c r="H3" t="n">
-        <v>0.23527448373</v>
+        <v>0.023527448373</v>
       </c>
       <c r="I3" t="n">
-        <v>10.6367366164263</v>
+        <v>1.06367366164263</v>
       </c>
       <c r="J3" t="n">
-        <v>42.5469464657051</v>
+        <v>4.25469464657051</v>
       </c>
       <c r="K3" t="n">
-        <v>33.9516422186437</v>
+        <v>3.39516422186437</v>
       </c>
       <c r="L3" t="n">
-        <v>81.0436103838967</v>
+        <v>8.10436103838967</v>
       </c>
       <c r="M3" t="n">
         <v>2.38703064381945</v>
@@ -11033,7 +11135,7 @@
         <v>3</v>
       </c>
       <c r="O3" t="n">
-        <v>27.0145367946322</v>
+        <v>2.70145367946322</v>
       </c>
       <c r="P3" t="n">
         <v>0.79567688127315</v>
@@ -11056,16 +11158,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2706469304</v>
+        <v>0.02706469304</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>2.91331464370291</v>
+        <v>0.291331464370291</v>
       </c>
       <c r="H4" t="n">
-        <v>1.0294084847</v>
+        <v>0.10294084847</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -11074,10 +11176,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>33.9516422186437</v>
+        <v>3.39516422186437</v>
       </c>
       <c r="L4" t="n">
-        <v>81.0436103838967</v>
+        <v>8.10436103838967</v>
       </c>
       <c r="M4" t="n">
         <v>2.38703064381945</v>
@@ -11086,7 +11188,7 @@
         <v>3</v>
       </c>
       <c r="O4" t="n">
-        <v>27.0145367946322</v>
+        <v>2.70145367946322</v>
       </c>
       <c r="P4" t="n">
         <v>0.79567688127315</v>
@@ -11109,28 +11211,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E5" t="n">
-        <v>1.788170039</v>
+        <v>0.1788170039</v>
       </c>
       <c r="F5" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G5" t="n">
-        <v>19.2483319590958</v>
+        <v>1.92483319590958</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8940850195</v>
+        <v>0.08940850195</v>
       </c>
       <c r="I5" t="n">
-        <v>9.6241659795479</v>
+        <v>0.96241659795479</v>
       </c>
       <c r="J5" t="n">
-        <v>38.4966639181916</v>
+        <v>3.84966639181916</v>
       </c>
       <c r="K5" t="n">
-        <v>33.9516422186437</v>
+        <v>3.39516422186437</v>
       </c>
       <c r="L5" t="n">
-        <v>81.0436103838967</v>
+        <v>8.10436103838967</v>
       </c>
       <c r="M5" t="n">
         <v>2.38703064381945</v>
@@ -11139,7 +11241,7 @@
         <v>3</v>
       </c>
       <c r="O5" t="n">
-        <v>27.0145367946322</v>
+        <v>2.70145367946322</v>
       </c>
       <c r="P5" t="n">
         <v>0.79567688127315</v>
@@ -11220,52 +11322,52 @@
         <v>57</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>32.2927879440258</v>
+        <v>21.5285252960172</v>
       </c>
       <c r="E2" t="n">
-        <v>0.465126887</v>
+        <v>0.079841382</v>
       </c>
       <c r="F2" t="n">
-        <v>21.5285252960172</v>
+        <v>-10.7642626480086</v>
       </c>
       <c r="G2" t="n">
-        <v>15.0202439289559</v>
+        <v>1.71886721205597</v>
       </c>
       <c r="H2" t="n">
-        <v>0.35246414805</v>
+        <v>0.123206569666667</v>
       </c>
       <c r="I2" t="n">
-        <v>7.58803332723359</v>
+        <v>-1.32622787585217</v>
       </c>
       <c r="J2" t="n">
-        <v>22.7640999817008</v>
+        <v>-5.30491150340869</v>
       </c>
       <c r="K2" t="n">
-        <v>21.3337965608181</v>
+        <v>74.8678416496233</v>
       </c>
       <c r="L2" t="n">
-        <v>28.3625009031216</v>
+        <v>96.0802457427341</v>
       </c>
       <c r="M2" t="n">
-        <v>1.32946336214777</v>
+        <v>1.28333131589907</v>
       </c>
       <c r="N2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O2" t="n">
-        <v>7.09062522578041</v>
+        <v>32.0267485809114</v>
       </c>
       <c r="P2" t="n">
-        <v>0.332365840536941</v>
+        <v>0.42777710529969</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.0163205943723955</v>
+        <v>0.153930849486058</v>
       </c>
     </row>
     <row r="3">
@@ -11273,25 +11375,25 @@
         <v>57</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
       </c>
       <c r="D3" t="n">
-        <v>10.7642626480086</v>
+        <v>32.2927879440258</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2398014091</v>
+        <v>0.166571757333333</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.58128535091496</v>
+        <v>5.37906643702907</v>
       </c>
       <c r="H3" t="n">
-        <v>0.29326451975</v>
+        <v>0.388768718416667</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -11300,25 +11402,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>21.3337965608181</v>
+        <v>74.8678416496233</v>
       </c>
       <c r="L3" t="n">
-        <v>28.3625009031216</v>
+        <v>96.0802457427341</v>
       </c>
       <c r="M3" t="n">
-        <v>1.32946336214777</v>
+        <v>1.28333131589907</v>
       </c>
       <c r="N3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O3" t="n">
-        <v>7.09062522578041</v>
+        <v>32.0267485809114</v>
       </c>
       <c r="P3" t="n">
-        <v>0.332365840536941</v>
+        <v>0.42777710529969</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.0163205943723955</v>
+        <v>0.153930849486058</v>
       </c>
     </row>
     <row r="4">
@@ -11326,52 +11428,105 @@
         <v>57</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
       </c>
       <c r="D4" t="n">
-        <v>10.7642626480086</v>
+        <v>32.2927879440258</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3467276304</v>
+        <v>0.6109656795</v>
       </c>
       <c r="F4" t="n">
-        <v>10.7642626480086</v>
+        <v>-5.38213132400431</v>
       </c>
       <c r="G4" t="n">
-        <v>3.73226728094726</v>
+        <v>19.7297851291712</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1733638152</v>
+        <v>0.943043899</v>
       </c>
       <c r="I4" t="n">
-        <v>1.86613364047363</v>
+        <v>-5.07558610871905</v>
       </c>
       <c r="J4" t="n">
-        <v>5.59840092142088</v>
+        <v>-20.3023444348762</v>
       </c>
       <c r="K4" t="n">
-        <v>21.3337965608181</v>
+        <v>74.8678416496233</v>
       </c>
       <c r="L4" t="n">
-        <v>28.3625009031216</v>
+        <v>96.0802457427341</v>
       </c>
       <c r="M4" t="n">
-        <v>1.32946336214777</v>
+        <v>1.28333131589907</v>
       </c>
       <c r="N4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O4" t="n">
-        <v>7.09062522578041</v>
+        <v>32.0267485809114</v>
       </c>
       <c r="P4" t="n">
-        <v>0.332365840536941</v>
+        <v>0.42777710529969</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.0163205943723955</v>
+        <v>0.153930849486058</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" t="n">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="n">
+        <v>37.6749192680301</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.2751221185</v>
+      </c>
+      <c r="F5" t="n">
+        <v>37.6749192680301</v>
+      </c>
+      <c r="G5" t="n">
+        <v>48.0401228713671</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.63756105925</v>
+      </c>
+      <c r="I5" t="n">
+        <v>24.0200614356835</v>
+      </c>
+      <c r="J5" t="n">
+        <v>96.0802457427341</v>
+      </c>
+      <c r="K5" t="n">
+        <v>74.8678416496233</v>
+      </c>
+      <c r="L5" t="n">
+        <v>96.0802457427341</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.28333131589907</v>
+      </c>
+      <c r="N5" t="n">
+        <v>3</v>
+      </c>
+      <c r="O5" t="n">
+        <v>32.0267485809114</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.42777710529969</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.153930849486058</v>
       </c>
     </row>
   </sheetData>
@@ -11446,7 +11601,7 @@
         <v>58</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -11455,43 +11610,43 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E2" t="n">
-        <v>0.079841382</v>
+        <v>0.011</v>
       </c>
       <c r="F2" t="n">
-        <v>-10.7642626480086</v>
+        <v>10.7642626480086</v>
       </c>
       <c r="G2" t="n">
-        <v>1.71886721205597</v>
+        <v>0.236813778256189</v>
       </c>
       <c r="H2" t="n">
-        <v>0.123206569666667</v>
+        <v>0.0225586505</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.32622787585217</v>
+        <v>0.242827238966631</v>
       </c>
       <c r="J2" t="n">
-        <v>-5.30491150340869</v>
+        <v>1.45696343379978</v>
       </c>
       <c r="K2" t="n">
-        <v>74.8678416496233</v>
+        <v>40.5552009364909</v>
       </c>
       <c r="L2" t="n">
-        <v>96.0802457427341</v>
+        <v>72.5078735522067</v>
       </c>
       <c r="M2" t="n">
-        <v>1.28333131589907</v>
+        <v>1.78788100854816</v>
       </c>
       <c r="N2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O2" t="n">
-        <v>32.0267485809114</v>
+        <v>36.2539367761033</v>
       </c>
       <c r="P2" t="n">
-        <v>0.42777710529969</v>
+        <v>0.893940504274081</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.153930849486058</v>
+        <v>0.188597967831189</v>
       </c>
     </row>
     <row r="3">
@@ -11499,52 +11654,52 @@
         <v>58</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
       </c>
       <c r="D3" t="n">
-        <v>32.2927879440258</v>
+        <v>10.7642626480086</v>
       </c>
       <c r="E3" t="n">
-        <v>0.166571757333333</v>
+        <v>0.034117301</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-10.7642626480086</v>
       </c>
       <c r="G3" t="n">
-        <v>5.37906643702907</v>
+        <v>0.367247588805167</v>
       </c>
       <c r="H3" t="n">
-        <v>0.388768718416667</v>
+        <v>0.116284072</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-1.25171229278794</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-7.51027375672766</v>
       </c>
       <c r="K3" t="n">
-        <v>74.8678416496233</v>
+        <v>40.5552009364909</v>
       </c>
       <c r="L3" t="n">
-        <v>96.0802457427341</v>
+        <v>72.5078735522067</v>
       </c>
       <c r="M3" t="n">
-        <v>1.28333131589907</v>
+        <v>1.78788100854816</v>
       </c>
       <c r="N3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O3" t="n">
-        <v>32.0267485809114</v>
+        <v>36.2539367761033</v>
       </c>
       <c r="P3" t="n">
-        <v>0.42777710529969</v>
+        <v>0.893940504274081</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.153930849486058</v>
+        <v>0.188597967831189</v>
       </c>
     </row>
     <row r="4">
@@ -11552,52 +11707,52 @@
         <v>58</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
       </c>
       <c r="D4" t="n">
-        <v>32.2927879440258</v>
+        <v>21.5285252960172</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6109656795</v>
+        <v>0.198450843</v>
       </c>
       <c r="F4" t="n">
-        <v>-5.38213132400431</v>
+        <v>10.7642626480086</v>
       </c>
       <c r="G4" t="n">
-        <v>19.7297851291712</v>
+        <v>4.27235399354144</v>
       </c>
       <c r="H4" t="n">
-        <v>0.943043899</v>
+        <v>0.2050427155</v>
       </c>
       <c r="I4" t="n">
-        <v>-5.07558610871905</v>
+        <v>2.20713364370291</v>
       </c>
       <c r="J4" t="n">
-        <v>-20.3023444348762</v>
+        <v>13.2428018622174</v>
       </c>
       <c r="K4" t="n">
-        <v>74.8678416496233</v>
+        <v>40.5552009364909</v>
       </c>
       <c r="L4" t="n">
-        <v>96.0802457427341</v>
+        <v>72.5078735522067</v>
       </c>
       <c r="M4" t="n">
-        <v>1.28333131589907</v>
+        <v>1.78788100854816</v>
       </c>
       <c r="N4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O4" t="n">
-        <v>32.0267485809114</v>
+        <v>36.2539367761033</v>
       </c>
       <c r="P4" t="n">
-        <v>0.42777710529969</v>
+        <v>0.893940504274081</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.153930849486058</v>
+        <v>0.188597967831189</v>
       </c>
     </row>
     <row r="5">
@@ -11605,52 +11760,158 @@
         <v>58</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>
       </c>
       <c r="D5" t="n">
-        <v>37.6749192680301</v>
+        <v>10.7642626480086</v>
       </c>
       <c r="E5" t="n">
-        <v>1.2751221185</v>
+        <v>0.211634588</v>
       </c>
       <c r="F5" t="n">
-        <v>37.6749192680301</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>48.0401228713671</v>
+        <v>2.27809029063509</v>
       </c>
       <c r="H5" t="n">
-        <v>0.63756105925</v>
+        <v>0.7622173805</v>
       </c>
       <c r="I5" t="n">
-        <v>24.0200614356835</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>96.0802457427341</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>74.8678416496233</v>
+        <v>40.5552009364909</v>
       </c>
       <c r="L5" t="n">
-        <v>96.0802457427341</v>
+        <v>72.5078735522067</v>
       </c>
       <c r="M5" t="n">
-        <v>1.28333131589907</v>
+        <v>1.78788100854816</v>
       </c>
       <c r="N5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O5" t="n">
-        <v>32.0267485809114</v>
+        <v>36.2539367761033</v>
       </c>
       <c r="P5" t="n">
-        <v>0.42777710529969</v>
+        <v>0.893940504274081</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.153930849486058</v>
+        <v>0.188597967831189</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" t="n">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="n">
+        <v>10.7642626480086</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.312800173</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>14.1313258665231</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.551462296</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>40.5552009364909</v>
+      </c>
+      <c r="L6" t="n">
+        <v>72.5078735522067</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.78788100854816</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2</v>
+      </c>
+      <c r="O6" t="n">
+        <v>36.2539367761033</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.893940504274081</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.188597967831189</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="n">
+        <v>10.7642626480086</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.790124419</v>
+      </c>
+      <c r="F7" t="n">
+        <v>10.7642626480086</v>
+      </c>
+      <c r="G7" t="n">
+        <v>19.2693694187298</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.8950622095</v>
+      </c>
+      <c r="I7" t="n">
+        <v>9.63468470936491</v>
+      </c>
+      <c r="J7" t="n">
+        <v>57.8081082561895</v>
+      </c>
+      <c r="K7" t="n">
+        <v>40.5552009364909</v>
+      </c>
+      <c r="L7" t="n">
+        <v>72.5078735522067</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.78788100854816</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2</v>
+      </c>
+      <c r="O7" t="n">
+        <v>36.2539367761033</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.893940504274081</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.188597967831189</v>
       </c>
     </row>
   </sheetData>
@@ -11731,46 +11992,46 @@
         <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>21.5285252960172</v>
+        <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.011</v>
+        <v>0.0077</v>
       </c>
       <c r="F2" t="n">
-        <v>10.7642626480086</v>
+        <v>-32.2927879440258</v>
       </c>
       <c r="G2" t="n">
-        <v>0.236813778256189</v>
+        <v>0.0828848223896663</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0225586505</v>
+        <v>0.117453104</v>
       </c>
       <c r="I2" t="n">
-        <v>0.242827238966631</v>
+        <v>-3.79288818083961</v>
       </c>
       <c r="J2" t="n">
-        <v>1.45696343379978</v>
+        <v>-22.7573290850377</v>
       </c>
       <c r="K2" t="n">
-        <v>40.5552009364909</v>
+        <v>93.7916490096879</v>
       </c>
       <c r="L2" t="n">
-        <v>72.5078735522067</v>
+        <v>239.664331808396</v>
       </c>
       <c r="M2" t="n">
-        <v>1.78788100854816</v>
+        <v>2.55528433862636</v>
       </c>
       <c r="N2" t="n">
         <v>2</v>
       </c>
       <c r="O2" t="n">
-        <v>36.2539367761033</v>
+        <v>119.832165904198</v>
       </c>
       <c r="P2" t="n">
-        <v>0.893940504274081</v>
+        <v>1.27764216931318</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.188597967831189</v>
+        <v>0.263941602349173</v>
       </c>
     </row>
     <row r="3">
@@ -11784,46 +12045,46 @@
         <v>18</v>
       </c>
       <c r="D3" t="n">
-        <v>10.7642626480086</v>
+        <v>43.0570505920345</v>
       </c>
       <c r="E3" t="n">
-        <v>0.034117301</v>
+        <v>0.227206208</v>
       </c>
       <c r="F3" t="n">
-        <v>-10.7642626480086</v>
+        <v>5.38213132400431</v>
       </c>
       <c r="G3" t="n">
-        <v>0.367247588805167</v>
+        <v>9.7828291926803</v>
       </c>
       <c r="H3" t="n">
-        <v>0.116284072</v>
+        <v>0.433543701</v>
       </c>
       <c r="I3" t="n">
-        <v>-1.25171229278794</v>
+        <v>2.33338913347686</v>
       </c>
       <c r="J3" t="n">
-        <v>-7.51027375672766</v>
+        <v>14.0003348008611</v>
       </c>
       <c r="K3" t="n">
-        <v>40.5552009364909</v>
+        <v>93.7916490096879</v>
       </c>
       <c r="L3" t="n">
-        <v>72.5078735522067</v>
+        <v>239.664331808396</v>
       </c>
       <c r="M3" t="n">
-        <v>1.78788100854816</v>
+        <v>2.55528433862636</v>
       </c>
       <c r="N3" t="n">
         <v>2</v>
       </c>
       <c r="O3" t="n">
-        <v>36.2539367761033</v>
+        <v>119.832165904198</v>
       </c>
       <c r="P3" t="n">
-        <v>0.893940504274081</v>
+        <v>1.27764216931318</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.188597967831189</v>
+        <v>0.263941602349173</v>
       </c>
     </row>
     <row r="4">
@@ -11837,46 +12098,46 @@
         <v>18</v>
       </c>
       <c r="D4" t="n">
-        <v>21.5285252960172</v>
+        <v>37.6749192680301</v>
       </c>
       <c r="E4" t="n">
-        <v>0.198450843</v>
+        <v>0.639881194</v>
       </c>
       <c r="F4" t="n">
-        <v>10.7642626480086</v>
+        <v>26.9106566200215</v>
       </c>
       <c r="G4" t="n">
-        <v>4.27235399354144</v>
+        <v>24.1074723250807</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2050427155</v>
+        <v>0.52944815</v>
       </c>
       <c r="I4" t="n">
-        <v>2.20713364370291</v>
+        <v>14.2477973627557</v>
       </c>
       <c r="J4" t="n">
-        <v>13.2428018622174</v>
+        <v>85.4867841765339</v>
       </c>
       <c r="K4" t="n">
-        <v>40.5552009364909</v>
+        <v>93.7916490096879</v>
       </c>
       <c r="L4" t="n">
-        <v>72.5078735522067</v>
+        <v>239.664331808396</v>
       </c>
       <c r="M4" t="n">
-        <v>1.78788100854816</v>
+        <v>2.55528433862636</v>
       </c>
       <c r="N4" t="n">
         <v>2</v>
       </c>
       <c r="O4" t="n">
-        <v>36.2539367761033</v>
+        <v>119.832165904198</v>
       </c>
       <c r="P4" t="n">
-        <v>0.893940504274081</v>
+        <v>1.27764216931318</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.188597967831189</v>
+        <v>0.263941602349173</v>
       </c>
     </row>
     <row r="5">
@@ -11893,16 +12154,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E5" t="n">
-        <v>0.211634588</v>
+        <v>0.419015106</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.27809029063509</v>
+        <v>4.51038865446717</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7622173805</v>
+        <v>0.608157079</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -11911,25 +12172,25 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>40.5552009364909</v>
+        <v>93.7916490096879</v>
       </c>
       <c r="L5" t="n">
-        <v>72.5078735522067</v>
+        <v>239.664331808396</v>
       </c>
       <c r="M5" t="n">
-        <v>1.78788100854816</v>
+        <v>2.55528433862636</v>
       </c>
       <c r="N5" t="n">
         <v>2</v>
       </c>
       <c r="O5" t="n">
-        <v>36.2539367761033</v>
+        <v>119.832165904198</v>
       </c>
       <c r="P5" t="n">
-        <v>0.893940504274081</v>
+        <v>1.27764216931318</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.188597967831189</v>
+        <v>0.263941602349173</v>
       </c>
     </row>
     <row r="6">
@@ -11937,7 +12198,7 @@
         <v>59</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
@@ -11946,16 +12207,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E6" t="n">
-        <v>1.312800173</v>
+        <v>0.797299052</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>14.1313258665231</v>
+        <v>8.58233640473628</v>
       </c>
       <c r="H6" t="n">
-        <v>1.551462296</v>
+        <v>2.569060038</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -11964,25 +12225,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>40.5552009364909</v>
+        <v>93.7916490096879</v>
       </c>
       <c r="L6" t="n">
-        <v>72.5078735522067</v>
+        <v>239.664331808396</v>
       </c>
       <c r="M6" t="n">
-        <v>1.78788100854816</v>
+        <v>2.55528433862636</v>
       </c>
       <c r="N6" t="n">
         <v>2</v>
       </c>
       <c r="O6" t="n">
-        <v>36.2539367761033</v>
+        <v>119.832165904198</v>
       </c>
       <c r="P6" t="n">
-        <v>0.893940504274081</v>
+        <v>1.27764216931318</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.188597967831189</v>
+        <v>0.263941602349173</v>
       </c>
     </row>
     <row r="7">
@@ -11999,43 +12260,43 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E7" t="n">
-        <v>1.790124419</v>
+        <v>4.340821024</v>
       </c>
       <c r="F7" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G7" t="n">
-        <v>19.2693694187298</v>
+        <v>46.7257376103337</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8950622095</v>
+        <v>2.170410512</v>
       </c>
       <c r="I7" t="n">
-        <v>9.63468470936491</v>
+        <v>23.3628688051669</v>
       </c>
       <c r="J7" t="n">
-        <v>57.8081082561895</v>
+        <v>140.177212831001</v>
       </c>
       <c r="K7" t="n">
-        <v>40.5552009364909</v>
+        <v>93.7916490096879</v>
       </c>
       <c r="L7" t="n">
-        <v>72.5078735522067</v>
+        <v>239.664331808396</v>
       </c>
       <c r="M7" t="n">
-        <v>1.78788100854816</v>
+        <v>2.55528433862636</v>
       </c>
       <c r="N7" t="n">
         <v>2</v>
       </c>
       <c r="O7" t="n">
-        <v>36.2539367761033</v>
+        <v>119.832165904198</v>
       </c>
       <c r="P7" t="n">
-        <v>0.893940504274081</v>
+        <v>1.27764216931318</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.188597967831189</v>
+        <v>0.263941602349173</v>
       </c>
     </row>
   </sheetData>
@@ -12110,7 +12371,7 @@
         <v>60</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -12119,43 +12380,43 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0077</v>
+        <v>44.78988774</v>
       </c>
       <c r="F2" t="n">
-        <v>-32.2927879440258</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0828848223896663</v>
+        <v>482.130115608181</v>
       </c>
       <c r="H2" t="n">
-        <v>0.117453104</v>
+        <v>51.76549984</v>
       </c>
       <c r="I2" t="n">
-        <v>-3.79288818083961</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>-22.7573290850377</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>93.7916490096879</v>
+        <v>13167.2440008611</v>
       </c>
       <c r="L2" t="n">
-        <v>239.664331808396</v>
+        <v>18079.2136921421</v>
       </c>
       <c r="M2" t="n">
-        <v>2.55528433862636</v>
+        <v>1.37304463188802</v>
       </c>
       <c r="N2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O2" t="n">
-        <v>119.832165904198</v>
+        <v>4519.80342303552</v>
       </c>
       <c r="P2" t="n">
-        <v>1.27764216931318</v>
+        <v>0.343261157972004</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.263941602349173</v>
+        <v>0.0619007501422695</v>
       </c>
     </row>
     <row r="3">
@@ -12163,52 +12424,52 @@
         <v>60</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
       </c>
       <c r="D3" t="n">
-        <v>43.0570505920345</v>
+        <v>10.7642626480086</v>
       </c>
       <c r="E3" t="n">
-        <v>0.227206208</v>
+        <v>58.74111194</v>
       </c>
       <c r="F3" t="n">
-        <v>5.38213132400431</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>9.7828291926803</v>
+        <v>632.304757158235</v>
       </c>
       <c r="H3" t="n">
-        <v>0.433543701</v>
+        <v>589.22353997</v>
       </c>
       <c r="I3" t="n">
-        <v>2.33338913347686</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>14.0003348008611</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>93.7916490096879</v>
+        <v>13167.2440008611</v>
       </c>
       <c r="L3" t="n">
-        <v>239.664331808396</v>
+        <v>18079.2136921421</v>
       </c>
       <c r="M3" t="n">
-        <v>2.55528433862636</v>
+        <v>1.37304463188802</v>
       </c>
       <c r="N3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O3" t="n">
-        <v>119.832165904198</v>
+        <v>4519.80342303552</v>
       </c>
       <c r="P3" t="n">
-        <v>1.27764216931318</v>
+        <v>0.343261157972004</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.263941602349173</v>
+        <v>0.0619007501422695</v>
       </c>
     </row>
     <row r="4">
@@ -12216,211 +12477,52 @@
         <v>60</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
       </c>
       <c r="D4" t="n">
-        <v>37.6749192680301</v>
+        <v>10.7642626480086</v>
       </c>
       <c r="E4" t="n">
-        <v>0.639881194</v>
+        <v>1119.705968</v>
       </c>
       <c r="F4" t="n">
-        <v>26.9106566200215</v>
+        <v>10.7642626480086</v>
       </c>
       <c r="G4" t="n">
-        <v>24.1074723250807</v>
+        <v>12052.8091280947</v>
       </c>
       <c r="H4" t="n">
-        <v>0.52944815</v>
+        <v>559.852984</v>
       </c>
       <c r="I4" t="n">
-        <v>14.2477973627557</v>
+        <v>6026.40456404736</v>
       </c>
       <c r="J4" t="n">
-        <v>85.4867841765339</v>
+        <v>18079.2136921421</v>
       </c>
       <c r="K4" t="n">
-        <v>93.7916490096879</v>
+        <v>13167.2440008611</v>
       </c>
       <c r="L4" t="n">
-        <v>239.664331808396</v>
+        <v>18079.2136921421</v>
       </c>
       <c r="M4" t="n">
-        <v>2.55528433862636</v>
+        <v>1.37304463188802</v>
       </c>
       <c r="N4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O4" t="n">
-        <v>119.832165904198</v>
+        <v>4519.80342303552</v>
       </c>
       <c r="P4" t="n">
-        <v>1.27764216931318</v>
+        <v>0.343261157972004</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.263941602349173</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="n">
-        <v>10.7642626480086</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.419015106</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>4.51038865446717</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.608157079</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>93.7916490096879</v>
-      </c>
-      <c r="L5" t="n">
-        <v>239.664331808396</v>
-      </c>
-      <c r="M5" t="n">
-        <v>2.55528433862636</v>
-      </c>
-      <c r="N5" t="n">
-        <v>2</v>
-      </c>
-      <c r="O5" t="n">
-        <v>119.832165904198</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1.27764216931318</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0.263941602349173</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="n">
-        <v>10.7642626480086</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.797299052</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>8.58233640473628</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2.569060038</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>93.7916490096879</v>
-      </c>
-      <c r="L6" t="n">
-        <v>239.664331808396</v>
-      </c>
-      <c r="M6" t="n">
-        <v>2.55528433862636</v>
-      </c>
-      <c r="N6" t="n">
-        <v>2</v>
-      </c>
-      <c r="O6" t="n">
-        <v>119.832165904198</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.27764216931318</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.263941602349173</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="n">
-        <v>10.7642626480086</v>
-      </c>
-      <c r="E7" t="n">
-        <v>4.340821024</v>
-      </c>
-      <c r="F7" t="n">
-        <v>10.7642626480086</v>
-      </c>
-      <c r="G7" t="n">
-        <v>46.7257376103337</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2.170410512</v>
-      </c>
-      <c r="I7" t="n">
-        <v>23.3628688051669</v>
-      </c>
-      <c r="J7" t="n">
-        <v>140.177212831001</v>
-      </c>
-      <c r="K7" t="n">
-        <v>93.7916490096879</v>
-      </c>
-      <c r="L7" t="n">
-        <v>239.664331808396</v>
-      </c>
-      <c r="M7" t="n">
-        <v>2.55528433862636</v>
-      </c>
-      <c r="N7" t="n">
-        <v>2</v>
-      </c>
-      <c r="O7" t="n">
-        <v>119.832165904198</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1.27764216931318</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0.263941602349173</v>
+        <v>0.0619007501422695</v>
       </c>
     </row>
   </sheetData>
@@ -12495,7 +12597,7 @@
         <v>61</v>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -12504,149 +12606,43 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>44.78988774</v>
+        <v>0.0049</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>10.7642626480086</v>
       </c>
       <c r="G2" t="n">
-        <v>482.130115608181</v>
+        <v>0.0527448869752422</v>
       </c>
       <c r="H2" t="n">
-        <v>51.76549984</v>
+        <v>0.00245</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.0263724434876211</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>0.0263724434876211</v>
       </c>
       <c r="K2" t="n">
-        <v>13167.2440008611</v>
+        <v>0.0527448869752422</v>
       </c>
       <c r="L2" t="n">
-        <v>18079.2136921421</v>
+        <v>0.0263724434876211</v>
       </c>
       <c r="M2" t="n">
-        <v>1.37304463188802</v>
+        <v>0.5</v>
       </c>
       <c r="N2" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="O2" t="n">
-        <v>4519.80342303552</v>
+        <v>0.00219770362396842</v>
       </c>
       <c r="P2" t="n">
-        <v>0.343261157972004</v>
+        <v>0.0416666666666667</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0619007501422695</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" t="n">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="n">
-        <v>10.7642626480086</v>
-      </c>
-      <c r="E3" t="n">
-        <v>58.74111194</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>632.304757158235</v>
-      </c>
-      <c r="H3" t="n">
-        <v>589.22353997</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>13167.2440008611</v>
-      </c>
-      <c r="L3" t="n">
-        <v>18079.2136921421</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.37304463188802</v>
-      </c>
-      <c r="N3" t="n">
-        <v>4</v>
-      </c>
-      <c r="O3" t="n">
-        <v>4519.80342303552</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0.343261157972004</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.0619007501422695</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" t="n">
-        <v>31</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="n">
-        <v>10.7642626480086</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1119.705968</v>
-      </c>
-      <c r="F4" t="n">
-        <v>10.7642626480086</v>
-      </c>
-      <c r="G4" t="n">
-        <v>12052.8091280947</v>
-      </c>
-      <c r="H4" t="n">
-        <v>559.852984</v>
-      </c>
-      <c r="I4" t="n">
-        <v>6026.40456404736</v>
-      </c>
-      <c r="J4" t="n">
-        <v>18079.2136921421</v>
-      </c>
-      <c r="K4" t="n">
-        <v>13167.2440008611</v>
-      </c>
-      <c r="L4" t="n">
-        <v>18079.2136921421</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.37304463188802</v>
-      </c>
-      <c r="N4" t="n">
-        <v>4</v>
-      </c>
-      <c r="O4" t="n">
-        <v>4519.80342303552</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.343261157972004</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.0619007501422695</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -12721,7 +12717,7 @@
         <v>62</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -12730,28 +12726,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0049</v>
+        <v>0.389940809</v>
       </c>
       <c r="F2" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0527448869752422</v>
+        <v>4.19742528525296</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00245</v>
+        <v>0.1949704045</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0263724434876211</v>
+        <v>2.09871264262648</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0263724434876211</v>
+        <v>2.09871264262648</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0527448869752422</v>
+        <v>4.19742528525296</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0263724434876211</v>
+        <v>2.09871264262648</v>
       </c>
       <c r="M2" t="n">
         <v>0.5</v>
@@ -12760,7 +12756,7 @@
         <v>12</v>
       </c>
       <c r="O2" t="n">
-        <v>0.00219770362396842</v>
+        <v>0.174892720218873</v>
       </c>
       <c r="P2" t="n">
         <v>0.0416666666666667</v>
@@ -12841,52 +12837,211 @@
         <v>63</v>
       </c>
       <c r="B2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="n">
+        <v>32.2927879440258</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.165695547</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.000000000000007105427357601</v>
+      </c>
+      <c r="G2" t="n">
+        <v>5.35077116254037</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.3093055115</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.00000000000000219774784326887</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.00000000000000879099137307549</v>
+      </c>
+      <c r="K2" t="n">
+        <v>41.7982686759957</v>
+      </c>
+      <c r="L2" t="n">
+        <v>69.7781298170075</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.66940239458005</v>
+      </c>
+      <c r="N2" t="n">
+        <v>3</v>
+      </c>
+      <c r="O2" t="n">
+        <v>23.2593766056692</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.556467464860017</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.137611631203166</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="n">
+        <v>32.2927879440258</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.452915476</v>
+      </c>
+      <c r="F3" t="n">
+        <v>21.5285252960172</v>
+      </c>
+      <c r="G3" t="n">
+        <v>14.6259034230355</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.3805262815</v>
+      </c>
+      <c r="I3" t="n">
+        <v>8.19216967707212</v>
+      </c>
+      <c r="J3" t="n">
+        <v>32.7686787082885</v>
+      </c>
+      <c r="K3" t="n">
+        <v>41.7982686759957</v>
+      </c>
+      <c r="L3" t="n">
+        <v>69.7781298170075</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.66940239458005</v>
+      </c>
+      <c r="N3" t="n">
+        <v>3</v>
+      </c>
+      <c r="O3" t="n">
+        <v>23.2593766056692</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.556467464860017</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.137611631203166</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" t="n">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="n">
-        <v>10.7642626480086</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.389940809</v>
-      </c>
-      <c r="F2" t="n">
-        <v>10.7642626480086</v>
-      </c>
-      <c r="G2" t="n">
-        <v>4.19742528525296</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.1949704045</v>
-      </c>
-      <c r="I2" t="n">
-        <v>2.09871264262648</v>
-      </c>
-      <c r="J2" t="n">
-        <v>2.09871264262648</v>
-      </c>
-      <c r="K2" t="n">
-        <v>4.19742528525296</v>
-      </c>
-      <c r="L2" t="n">
-        <v>2.09871264262648</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N2" t="n">
-        <v>12</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.174892720218873</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.0416666666666667</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10.7642626480086</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.308137087</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>3.31686853606028</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.0136130455</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>41.7982686759957</v>
+      </c>
+      <c r="L4" t="n">
+        <v>69.7781298170075</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.66940239458005</v>
+      </c>
+      <c r="N4" t="n">
+        <v>3</v>
+      </c>
+      <c r="O4" t="n">
+        <v>23.2593766056692</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.556467464860017</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.137611631203166</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" t="n">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10.7642626480086</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.719089004</v>
+      </c>
+      <c r="F5" t="n">
+        <v>10.7642626480086</v>
+      </c>
+      <c r="G5" t="n">
+        <v>18.5047255543595</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.859544502</v>
+      </c>
+      <c r="I5" t="n">
+        <v>9.25236277717976</v>
+      </c>
+      <c r="J5" t="n">
+        <v>37.0094511087191</v>
+      </c>
+      <c r="K5" t="n">
+        <v>41.7982686759957</v>
+      </c>
+      <c r="L5" t="n">
+        <v>69.7781298170075</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.66940239458005</v>
+      </c>
+      <c r="N5" t="n">
+        <v>3</v>
+      </c>
+      <c r="O5" t="n">
+        <v>23.2593766056692</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.556467464860017</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.137611631203166</v>
       </c>
     </row>
   </sheetData>
@@ -12961,52 +13116,52 @@
         <v>64</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>32.2927879440258</v>
+        <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.165695547</v>
+        <v>0.111</v>
       </c>
       <c r="F2" t="n">
-        <v>0.000000000000007105427357601</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>5.35077116254037</v>
+        <v>1.19483315392896</v>
       </c>
       <c r="H2" t="n">
-        <v>0.3093055115</v>
+        <v>0.3672867625</v>
       </c>
       <c r="I2" t="n">
-        <v>0.00000000000000219774784326887</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.00000000000000879099137307549</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>41.7982686759957</v>
+        <v>45.6154154036599</v>
       </c>
       <c r="L2" t="n">
-        <v>69.7781298170075</v>
+        <v>56.5624095694295</v>
       </c>
       <c r="M2" t="n">
-        <v>1.66940239458005</v>
+        <v>1.23998453305527</v>
       </c>
       <c r="N2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O2" t="n">
-        <v>23.2593766056692</v>
+        <v>14.1406023923574</v>
       </c>
       <c r="P2" t="n">
-        <v>0.556467464860017</v>
+        <v>0.309996133263818</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.137611631203166</v>
+        <v>0.493124708440806</v>
       </c>
     </row>
     <row r="3">
@@ -13014,52 +13169,52 @@
         <v>64</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
       </c>
       <c r="D3" t="n">
-        <v>32.2927879440258</v>
+        <v>10.7642626480086</v>
       </c>
       <c r="E3" t="n">
-        <v>0.452915476</v>
+        <v>0.623573525</v>
       </c>
       <c r="F3" t="n">
-        <v>21.5285252960172</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>14.6259034230355</v>
+        <v>6.71230920344456</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3805262815</v>
+        <v>2.0633360455</v>
       </c>
       <c r="I3" t="n">
-        <v>8.19216967707212</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>32.7686787082885</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>41.7982686759957</v>
+        <v>45.6154154036599</v>
       </c>
       <c r="L3" t="n">
-        <v>69.7781298170075</v>
+        <v>56.5624095694295</v>
       </c>
       <c r="M3" t="n">
-        <v>1.66940239458005</v>
+        <v>1.23998453305527</v>
       </c>
       <c r="N3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O3" t="n">
-        <v>23.2593766056692</v>
+        <v>14.1406023923574</v>
       </c>
       <c r="P3" t="n">
-        <v>0.556467464860017</v>
+        <v>0.309996133263818</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.137611631203166</v>
+        <v>0.493124708440806</v>
       </c>
     </row>
     <row r="4">
@@ -13076,96 +13231,43 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E4" t="n">
-        <v>0.308137087</v>
+        <v>3.503098566</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>10.7642626480086</v>
       </c>
       <c r="G4" t="n">
-        <v>3.31686853606028</v>
+        <v>37.7082730462863</v>
       </c>
       <c r="H4" t="n">
-        <v>1.0136130455</v>
+        <v>1.751549283</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>18.8541365231432</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>56.5624095694295</v>
       </c>
       <c r="K4" t="n">
-        <v>41.7982686759957</v>
+        <v>45.6154154036599</v>
       </c>
       <c r="L4" t="n">
-        <v>69.7781298170075</v>
+        <v>56.5624095694295</v>
       </c>
       <c r="M4" t="n">
-        <v>1.66940239458005</v>
+        <v>1.23998453305527</v>
       </c>
       <c r="N4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O4" t="n">
-        <v>23.2593766056692</v>
+        <v>14.1406023923574</v>
       </c>
       <c r="P4" t="n">
-        <v>0.556467464860017</v>
+        <v>0.309996133263818</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.137611631203166</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" t="n">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="n">
-        <v>10.7642626480086</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1.719089004</v>
-      </c>
-      <c r="F5" t="n">
-        <v>10.7642626480086</v>
-      </c>
-      <c r="G5" t="n">
-        <v>18.5047255543595</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.859544502</v>
-      </c>
-      <c r="I5" t="n">
-        <v>9.25236277717976</v>
-      </c>
-      <c r="J5" t="n">
-        <v>37.0094511087191</v>
-      </c>
-      <c r="K5" t="n">
-        <v>41.7982686759957</v>
-      </c>
-      <c r="L5" t="n">
-        <v>69.7781298170075</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.66940239458005</v>
-      </c>
-      <c r="N5" t="n">
-        <v>3</v>
-      </c>
-      <c r="O5" t="n">
-        <v>23.2593766056692</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0.556467464860017</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0.137611631203166</v>
+        <v>0.493124708440806</v>
       </c>
     </row>
   </sheetData>
@@ -13246,46 +13348,46 @@
         <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>10.7642626480086</v>
+        <v>21.5285252960172</v>
       </c>
       <c r="E2" t="n">
-        <v>0.111</v>
+        <v>0.0256</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-78.0409041980624</v>
       </c>
       <c r="G2" t="n">
-        <v>1.19483315392896</v>
+        <v>0.551130247578041</v>
       </c>
       <c r="H2" t="n">
-        <v>0.3672867625</v>
+        <v>0.321776184125</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-25.1117043585172</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>-251.117043585172</v>
       </c>
       <c r="K2" t="n">
-        <v>45.6154154036599</v>
+        <v>889.955069950425</v>
       </c>
       <c r="L2" t="n">
-        <v>56.5624095694295</v>
+        <v>3002.21236765107</v>
       </c>
       <c r="M2" t="n">
-        <v>1.23998453305527</v>
+        <v>3.37344262538817</v>
       </c>
       <c r="N2" t="n">
-        <v>4</v>
+        <v>1.2</v>
       </c>
       <c r="O2" t="n">
-        <v>14.1406023923574</v>
+        <v>2501.84363970923</v>
       </c>
       <c r="P2" t="n">
-        <v>0.309996133263818</v>
+        <v>2.81120218782347</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.493124708440806</v>
+        <v>0.0969166440476875</v>
       </c>
     </row>
     <row r="3">
@@ -13299,46 +13401,46 @@
         <v>18</v>
       </c>
       <c r="D3" t="n">
-        <v>10.7642626480086</v>
+        <v>99.5694294940797</v>
       </c>
       <c r="E3" t="n">
-        <v>0.623573525</v>
+        <v>0.61795236825</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-31.3957660566918</v>
       </c>
       <c r="G3" t="n">
-        <v>6.71230920344456</v>
+        <v>61.5291647611679</v>
       </c>
       <c r="H3" t="n">
-        <v>2.0633360455</v>
+        <v>1.52817399047083</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-47.9781930987434</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-479.781930987434</v>
       </c>
       <c r="K3" t="n">
-        <v>45.6154154036599</v>
+        <v>889.955069950425</v>
       </c>
       <c r="L3" t="n">
-        <v>56.5624095694295</v>
+        <v>3002.21236765107</v>
       </c>
       <c r="M3" t="n">
-        <v>1.23998453305527</v>
+        <v>3.37344262538817</v>
       </c>
       <c r="N3" t="n">
-        <v>4</v>
+        <v>1.2</v>
       </c>
       <c r="O3" t="n">
-        <v>14.1406023923574</v>
+        <v>2501.84363970923</v>
       </c>
       <c r="P3" t="n">
-        <v>0.309996133263818</v>
+        <v>2.81120218782347</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.493124708440806</v>
+        <v>0.0969166440476875</v>
       </c>
     </row>
     <row r="4">
@@ -13346,52 +13448,423 @@
         <v>65</v>
       </c>
       <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="n">
+        <v>130.965195550771</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2.43839561269167</v>
+      </c>
+      <c r="F4" t="n">
+        <v>77.1438823107284</v>
+      </c>
+      <c r="G4" t="n">
+        <v>319.344958246307</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2.10114044884583</v>
+      </c>
+      <c r="I4" t="n">
+        <v>162.090131504074</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1620.90131504074</v>
+      </c>
+      <c r="K4" t="n">
+        <v>889.955069950425</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3002.21236765107</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3.37344262538817</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O4" t="n">
+        <v>2501.84363970923</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.81120218782347</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.0969166440476875</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" t="n">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="n">
-        <v>10.7642626480086</v>
-      </c>
-      <c r="E4" t="n">
-        <v>3.503098566</v>
-      </c>
-      <c r="F4" t="n">
-        <v>10.7642626480086</v>
-      </c>
-      <c r="G4" t="n">
-        <v>37.7082730462863</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1.751549283</v>
-      </c>
-      <c r="I4" t="n">
-        <v>18.8541365231432</v>
-      </c>
-      <c r="J4" t="n">
-        <v>56.5624095694295</v>
-      </c>
-      <c r="K4" t="n">
-        <v>45.6154154036599</v>
-      </c>
-      <c r="L4" t="n">
-        <v>56.5624095694295</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.23998453305527</v>
-      </c>
-      <c r="N4" t="n">
-        <v>4</v>
-      </c>
-      <c r="O4" t="n">
-        <v>14.1406023923574</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.309996133263818</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.493124708440806</v>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="n">
+        <v>53.8213132400431</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.763885285</v>
+      </c>
+      <c r="F5" t="n">
+        <v>32.2927879440258</v>
+      </c>
+      <c r="G5" t="n">
+        <v>94.9346224434876</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.7443560525</v>
+      </c>
+      <c r="I5" t="n">
+        <v>56.3301201022605</v>
+      </c>
+      <c r="J5" t="n">
+        <v>563.301201022605</v>
+      </c>
+      <c r="K5" t="n">
+        <v>889.955069950425</v>
+      </c>
+      <c r="L5" t="n">
+        <v>3002.21236765107</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3.37344262538817</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2501.84363970923</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.81120218782347</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.0969166440476875</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="n">
+        <v>21.5285252960172</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.72482682</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-0.0000000000000035527136788005</v>
+      </c>
+      <c r="G6" t="n">
+        <v>37.1329778256189</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2.251897699</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-0.00000000000000800034775849667</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-0.0000000000000800034775849667</v>
+      </c>
+      <c r="K6" t="n">
+        <v>889.955069950425</v>
+      </c>
+      <c r="L6" t="n">
+        <v>3002.21236765107</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3.37344262538817</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O6" t="n">
+        <v>2501.84363970923</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.81120218782347</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.0969166440476875</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="n">
+        <v>21.5285252960172</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2.778968578</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>59.82709532831</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.469116054</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>889.955069950425</v>
+      </c>
+      <c r="L7" t="n">
+        <v>3002.21236765107</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3.37344262538817</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O7" t="n">
+        <v>2501.84363970923</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.81120218782347</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.0969166440476875</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="n">
+        <v>21.5285252960172</v>
+      </c>
+      <c r="E8" t="n">
+        <v>4.15926353</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.0000000000000035527136788005</v>
+      </c>
+      <c r="G8" t="n">
+        <v>89.5428101184069</v>
+      </c>
+      <c r="H8" t="n">
+        <v>5.02875808875</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.0000000000000178657376492808</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.000000000000178657376492808</v>
+      </c>
+      <c r="K8" t="n">
+        <v>889.955069950425</v>
+      </c>
+      <c r="L8" t="n">
+        <v>3002.21236765107</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3.37344262538817</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O8" t="n">
+        <v>2501.84363970923</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2.81120218782347</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.0969166440476875</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="n">
+        <v>21.5285252960172</v>
+      </c>
+      <c r="E9" t="n">
+        <v>5.8982526475</v>
+      </c>
+      <c r="F9" t="n">
+        <v>10.7642626480086</v>
+      </c>
+      <c r="G9" t="n">
+        <v>126.980681324004</v>
+      </c>
+      <c r="H9" t="n">
+        <v>4.95580750875</v>
+      </c>
+      <c r="I9" t="n">
+        <v>53.3456136571582</v>
+      </c>
+      <c r="J9" t="n">
+        <v>533.456136571582</v>
+      </c>
+      <c r="K9" t="n">
+        <v>889.955069950425</v>
+      </c>
+      <c r="L9" t="n">
+        <v>3002.21236765107</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3.37344262538817</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O9" t="n">
+        <v>2501.84363970923</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2.81120218782347</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.0969166440476875</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="n">
+        <v>10.7642626480086</v>
+      </c>
+      <c r="E10" t="n">
+        <v>4.01336237</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>43.2008866523143</v>
+      </c>
+      <c r="H10" t="n">
+        <v>4.6501851975</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>889.955069950425</v>
+      </c>
+      <c r="L10" t="n">
+        <v>3002.21236765107</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3.37344262538817</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O10" t="n">
+        <v>2501.84363970923</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.81120218782347</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.0969166440476875</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="n">
+        <v>10.7642626480086</v>
+      </c>
+      <c r="E11" t="n">
+        <v>5.287008025</v>
+      </c>
+      <c r="F11" t="n">
+        <v>10.7642626480086</v>
+      </c>
+      <c r="G11" t="n">
+        <v>56.9107430032293</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2.6435040125</v>
+      </c>
+      <c r="I11" t="n">
+        <v>28.4553715016146</v>
+      </c>
+      <c r="J11" t="n">
+        <v>284.553715016146</v>
+      </c>
+      <c r="K11" t="n">
+        <v>889.955069950425</v>
+      </c>
+      <c r="L11" t="n">
+        <v>3002.21236765107</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3.37344262538817</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O11" t="n">
+        <v>2501.84363970923</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2.81120218782347</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.0969166440476875</v>
       </c>
     </row>
   </sheetData>
@@ -13472,46 +13945,46 @@
         <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>21.5285252960172</v>
+        <v>43.0570505920344</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0256</v>
+        <v>0.0388</v>
       </c>
       <c r="F2" t="n">
-        <v>-78.0409041980624</v>
+        <v>5.3821313240043</v>
       </c>
       <c r="G2" t="n">
-        <v>0.551130247578041</v>
+        <v>1.67061356297094</v>
       </c>
       <c r="H2" t="n">
-        <v>0.321776184125</v>
+        <v>0.14566751175</v>
       </c>
       <c r="I2" t="n">
-        <v>-25.1117043585172</v>
+        <v>0.784001677879439</v>
       </c>
       <c r="J2" t="n">
-        <v>-251.117043585172</v>
+        <v>4.70401006727663</v>
       </c>
       <c r="K2" t="n">
-        <v>889.955069950425</v>
+        <v>160.128481488159</v>
       </c>
       <c r="L2" t="n">
-        <v>3002.21236765107</v>
+        <v>480.033948665231</v>
       </c>
       <c r="M2" t="n">
-        <v>3.37344262538817</v>
+        <v>2.99780491392924</v>
       </c>
       <c r="N2" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="O2" t="n">
-        <v>2501.84363970923</v>
+        <v>240.016974332616</v>
       </c>
       <c r="P2" t="n">
-        <v>2.81120218782347</v>
+        <v>1.49890245696462</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0969166440476875</v>
+        <v>0.201464734866797</v>
       </c>
     </row>
     <row r="3">
@@ -13525,46 +13998,46 @@
         <v>18</v>
       </c>
       <c r="D3" t="n">
-        <v>99.5694294940797</v>
+        <v>37.6749192680301</v>
       </c>
       <c r="E3" t="n">
-        <v>0.61795236825</v>
+        <v>0.2525350235</v>
       </c>
       <c r="F3" t="n">
-        <v>-31.3957660566918</v>
+        <v>26.9106566200215</v>
       </c>
       <c r="G3" t="n">
-        <v>61.5291647611679</v>
+        <v>9.51423662271259</v>
       </c>
       <c r="H3" t="n">
-        <v>1.52817399047083</v>
+        <v>0.24295056125</v>
       </c>
       <c r="I3" t="n">
-        <v>-47.9781930987434</v>
+        <v>6.53795912944026</v>
       </c>
       <c r="J3" t="n">
-        <v>-479.781930987434</v>
+        <v>39.2277547766416</v>
       </c>
       <c r="K3" t="n">
-        <v>889.955069950425</v>
+        <v>160.128481488159</v>
       </c>
       <c r="L3" t="n">
-        <v>3002.21236765107</v>
+        <v>480.033948665231</v>
       </c>
       <c r="M3" t="n">
-        <v>3.37344262538817</v>
+        <v>2.99780491392924</v>
       </c>
       <c r="N3" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="O3" t="n">
-        <v>2501.84363970923</v>
+        <v>240.016974332616</v>
       </c>
       <c r="P3" t="n">
-        <v>2.81120218782347</v>
+        <v>1.49890245696462</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.0969166440476875</v>
+        <v>0.201464734866797</v>
       </c>
     </row>
     <row r="4">
@@ -13578,46 +14051,46 @@
         <v>18</v>
       </c>
       <c r="D4" t="n">
-        <v>130.965195550771</v>
+        <v>10.7642626480086</v>
       </c>
       <c r="E4" t="n">
-        <v>2.43839561269167</v>
+        <v>0.233366099</v>
       </c>
       <c r="F4" t="n">
-        <v>77.1438823107284</v>
+        <v>-32.2927879440258</v>
       </c>
       <c r="G4" t="n">
-        <v>319.344958246307</v>
+        <v>2.51201398277718</v>
       </c>
       <c r="H4" t="n">
-        <v>2.10114044884583</v>
+        <v>1.1900924755</v>
       </c>
       <c r="I4" t="n">
-        <v>162.090131504074</v>
+        <v>-38.4314039451023</v>
       </c>
       <c r="J4" t="n">
-        <v>1620.90131504074</v>
+        <v>-230.588423670614</v>
       </c>
       <c r="K4" t="n">
-        <v>889.955069950425</v>
+        <v>160.128481488159</v>
       </c>
       <c r="L4" t="n">
-        <v>3002.21236765107</v>
+        <v>480.033948665231</v>
       </c>
       <c r="M4" t="n">
-        <v>3.37344262538817</v>
+        <v>2.99780491392924</v>
       </c>
       <c r="N4" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="O4" t="n">
-        <v>2501.84363970923</v>
+        <v>240.016974332616</v>
       </c>
       <c r="P4" t="n">
-        <v>2.81120218782347</v>
+        <v>1.49890245696462</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.0969166440476875</v>
+        <v>0.201464734866797</v>
       </c>
     </row>
     <row r="5">
@@ -13631,46 +14104,46 @@
         <v>18</v>
       </c>
       <c r="D5" t="n">
-        <v>53.8213132400431</v>
+        <v>43.0570505920345</v>
       </c>
       <c r="E5" t="n">
-        <v>1.763885285</v>
+        <v>2.146818852</v>
       </c>
       <c r="F5" t="n">
         <v>32.2927879440258</v>
       </c>
       <c r="G5" t="n">
-        <v>94.9346224434876</v>
+        <v>92.4356879224973</v>
       </c>
       <c r="H5" t="n">
-        <v>1.7443560525</v>
+        <v>1.5853975665</v>
       </c>
       <c r="I5" t="n">
-        <v>56.3301201022605</v>
+        <v>51.1969074219591</v>
       </c>
       <c r="J5" t="n">
-        <v>563.301201022605</v>
+        <v>307.181444531755</v>
       </c>
       <c r="K5" t="n">
-        <v>889.955069950425</v>
+        <v>160.128481488159</v>
       </c>
       <c r="L5" t="n">
-        <v>3002.21236765107</v>
+        <v>480.033948665231</v>
       </c>
       <c r="M5" t="n">
-        <v>3.37344262538817</v>
+        <v>2.99780491392924</v>
       </c>
       <c r="N5" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="O5" t="n">
-        <v>2501.84363970923</v>
+        <v>240.016974332616</v>
       </c>
       <c r="P5" t="n">
-        <v>2.81120218782347</v>
+        <v>1.49890245696462</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.0969166440476875</v>
+        <v>0.201464734866797</v>
       </c>
     </row>
     <row r="6">
@@ -13684,46 +14157,46 @@
         <v>18</v>
       </c>
       <c r="D6" t="n">
-        <v>21.5285252960172</v>
+        <v>10.7642626480086</v>
       </c>
       <c r="E6" t="n">
-        <v>1.72482682</v>
+        <v>1.023976281</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.0000000000000035527136788005</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>37.1329778256189</v>
+        <v>11.0223496340151</v>
       </c>
       <c r="H6" t="n">
-        <v>2.251897699</v>
+        <v>2.5081109205</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.00000000000000800034775849667</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.0000000000000800034775849667</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>889.955069950425</v>
+        <v>160.128481488159</v>
       </c>
       <c r="L6" t="n">
-        <v>3002.21236765107</v>
+        <v>480.033948665231</v>
       </c>
       <c r="M6" t="n">
-        <v>3.37344262538817</v>
+        <v>2.99780491392924</v>
       </c>
       <c r="N6" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="O6" t="n">
-        <v>2501.84363970923</v>
+        <v>240.016974332616</v>
       </c>
       <c r="P6" t="n">
-        <v>2.81120218782347</v>
+        <v>1.49890245696462</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.0969166440476875</v>
+        <v>0.201464734866797</v>
       </c>
     </row>
     <row r="7">
@@ -13731,264 +14204,52 @@
         <v>66</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>18</v>
       </c>
       <c r="D7" t="n">
-        <v>21.5285252960172</v>
+        <v>10.7642626480086</v>
       </c>
       <c r="E7" t="n">
-        <v>2.778968578</v>
+        <v>3.99224556</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>10.7642626480086</v>
       </c>
       <c r="G7" t="n">
-        <v>59.82709532831</v>
+        <v>42.9735797631862</v>
       </c>
       <c r="H7" t="n">
-        <v>3.469116054</v>
+        <v>1.99612278</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>21.4867898815931</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>128.920739289559</v>
       </c>
       <c r="K7" t="n">
-        <v>889.955069950425</v>
+        <v>160.128481488159</v>
       </c>
       <c r="L7" t="n">
-        <v>3002.21236765107</v>
+        <v>480.033948665231</v>
       </c>
       <c r="M7" t="n">
-        <v>3.37344262538817</v>
+        <v>2.99780491392924</v>
       </c>
       <c r="N7" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="O7" t="n">
-        <v>2501.84363970923</v>
+        <v>240.016974332616</v>
       </c>
       <c r="P7" t="n">
-        <v>2.81120218782347</v>
+        <v>1.49890245696462</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0969166440476875</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B8" t="n">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" t="n">
-        <v>21.5285252960172</v>
-      </c>
-      <c r="E8" t="n">
-        <v>4.15926353</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.0000000000000035527136788005</v>
-      </c>
-      <c r="G8" t="n">
-        <v>89.5428101184069</v>
-      </c>
-      <c r="H8" t="n">
-        <v>5.02875808875</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.0000000000000178657376492808</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.000000000000178657376492808</v>
-      </c>
-      <c r="K8" t="n">
-        <v>889.955069950425</v>
-      </c>
-      <c r="L8" t="n">
-        <v>3002.21236765107</v>
-      </c>
-      <c r="M8" t="n">
-        <v>3.37344262538817</v>
-      </c>
-      <c r="N8" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="O8" t="n">
-        <v>2501.84363970923</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2.81120218782347</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0.0969166440476875</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9" t="n">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" t="n">
-        <v>21.5285252960172</v>
-      </c>
-      <c r="E9" t="n">
-        <v>5.8982526475</v>
-      </c>
-      <c r="F9" t="n">
-        <v>10.7642626480086</v>
-      </c>
-      <c r="G9" t="n">
-        <v>126.980681324004</v>
-      </c>
-      <c r="H9" t="n">
-        <v>4.95580750875</v>
-      </c>
-      <c r="I9" t="n">
-        <v>53.3456136571582</v>
-      </c>
-      <c r="J9" t="n">
-        <v>533.456136571582</v>
-      </c>
-      <c r="K9" t="n">
-        <v>889.955069950425</v>
-      </c>
-      <c r="L9" t="n">
-        <v>3002.21236765107</v>
-      </c>
-      <c r="M9" t="n">
-        <v>3.37344262538817</v>
-      </c>
-      <c r="N9" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="O9" t="n">
-        <v>2501.84363970923</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2.81120218782347</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0.0969166440476875</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10" t="n">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" t="n">
-        <v>10.7642626480086</v>
-      </c>
-      <c r="E10" t="n">
-        <v>4.01336237</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>43.2008866523143</v>
-      </c>
-      <c r="H10" t="n">
-        <v>4.6501851975</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>889.955069950425</v>
-      </c>
-      <c r="L10" t="n">
-        <v>3002.21236765107</v>
-      </c>
-      <c r="M10" t="n">
-        <v>3.37344262538817</v>
-      </c>
-      <c r="N10" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="O10" t="n">
-        <v>2501.84363970923</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2.81120218782347</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0.0969166440476875</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>66</v>
-      </c>
-      <c r="B11" t="n">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" t="n">
-        <v>10.7642626480086</v>
-      </c>
-      <c r="E11" t="n">
-        <v>5.287008025</v>
-      </c>
-      <c r="F11" t="n">
-        <v>10.7642626480086</v>
-      </c>
-      <c r="G11" t="n">
-        <v>56.9107430032293</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2.6435040125</v>
-      </c>
-      <c r="I11" t="n">
-        <v>28.4553715016146</v>
-      </c>
-      <c r="J11" t="n">
-        <v>284.553715016146</v>
-      </c>
-      <c r="K11" t="n">
-        <v>889.955069950425</v>
-      </c>
-      <c r="L11" t="n">
-        <v>3002.21236765107</v>
-      </c>
-      <c r="M11" t="n">
-        <v>3.37344262538817</v>
-      </c>
-      <c r="N11" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="O11" t="n">
-        <v>2501.84363970923</v>
-      </c>
-      <c r="P11" t="n">
-        <v>2.81120218782347</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0.0969166440476875</v>
+        <v>0.201464734866797</v>
       </c>
     </row>
   </sheetData>
@@ -14289,52 +14550,52 @@
         <v>67</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>43.0570505920344</v>
+        <v>32.2927879440258</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0388</v>
+        <v>0.395067932</v>
       </c>
       <c r="F2" t="n">
-        <v>5.3821313240043</v>
+        <v>21.5285252960172</v>
       </c>
       <c r="G2" t="n">
-        <v>1.67061356297094</v>
+        <v>12.7578449515608</v>
       </c>
       <c r="H2" t="n">
-        <v>0.14566751175</v>
+        <v>0.341158768</v>
       </c>
       <c r="I2" t="n">
-        <v>0.784001677879439</v>
+        <v>7.34464516684607</v>
       </c>
       <c r="J2" t="n">
-        <v>4.70401006727663</v>
+        <v>22.0339355005382</v>
       </c>
       <c r="K2" t="n">
-        <v>160.128481488159</v>
+        <v>21.5118347900969</v>
       </c>
       <c r="L2" t="n">
-        <v>480.033948665231</v>
+        <v>30.5268749838536</v>
       </c>
       <c r="M2" t="n">
-        <v>2.99780491392924</v>
+        <v>1.41907351379934</v>
       </c>
       <c r="N2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O2" t="n">
-        <v>240.016974332616</v>
+        <v>7.6317187459634</v>
       </c>
       <c r="P2" t="n">
-        <v>1.49890245696462</v>
+        <v>0.354768378449834</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.201464734866797</v>
+        <v>0.0238529980954153</v>
       </c>
     </row>
     <row r="3">
@@ -14342,52 +14603,52 @@
         <v>67</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
       </c>
       <c r="D3" t="n">
-        <v>37.6749192680301</v>
+        <v>10.7642626480086</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2525350235</v>
+        <v>0.287249604</v>
       </c>
       <c r="F3" t="n">
-        <v>26.9106566200215</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>9.51423662271259</v>
+        <v>3.09203018299247</v>
       </c>
       <c r="H3" t="n">
-        <v>0.24295056125</v>
+        <v>0.406622828</v>
       </c>
       <c r="I3" t="n">
-        <v>6.53795912944026</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>39.2277547766416</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>160.128481488159</v>
+        <v>21.5118347900969</v>
       </c>
       <c r="L3" t="n">
-        <v>480.033948665231</v>
+        <v>30.5268749838536</v>
       </c>
       <c r="M3" t="n">
-        <v>2.99780491392924</v>
+        <v>1.41907351379934</v>
       </c>
       <c r="N3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O3" t="n">
-        <v>240.016974332616</v>
+        <v>7.6317187459634</v>
       </c>
       <c r="P3" t="n">
-        <v>1.49890245696462</v>
+        <v>0.354768378449834</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.201464734866797</v>
+        <v>0.0238529980954153</v>
       </c>
     </row>
     <row r="4">
@@ -14395,7 +14656,7 @@
         <v>67</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
@@ -14404,202 +14665,43 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E4" t="n">
-        <v>0.233366099</v>
+        <v>0.525996052</v>
       </c>
       <c r="F4" t="n">
-        <v>-32.2927879440258</v>
+        <v>10.7642626480086</v>
       </c>
       <c r="G4" t="n">
-        <v>2.51201398277718</v>
+        <v>5.6619596555436</v>
       </c>
       <c r="H4" t="n">
-        <v>1.1900924755</v>
+        <v>0.262998026</v>
       </c>
       <c r="I4" t="n">
-        <v>-38.4314039451023</v>
+        <v>2.8309798277718</v>
       </c>
       <c r="J4" t="n">
-        <v>-230.588423670614</v>
+        <v>8.49293948331539</v>
       </c>
       <c r="K4" t="n">
-        <v>160.128481488159</v>
+        <v>21.5118347900969</v>
       </c>
       <c r="L4" t="n">
-        <v>480.033948665231</v>
+        <v>30.5268749838536</v>
       </c>
       <c r="M4" t="n">
-        <v>2.99780491392924</v>
+        <v>1.41907351379934</v>
       </c>
       <c r="N4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O4" t="n">
-        <v>240.016974332616</v>
+        <v>7.6317187459634</v>
       </c>
       <c r="P4" t="n">
-        <v>1.49890245696462</v>
+        <v>0.354768378449834</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.201464734866797</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="n">
-        <v>43.0570505920345</v>
-      </c>
-      <c r="E5" t="n">
-        <v>2.146818852</v>
-      </c>
-      <c r="F5" t="n">
-        <v>32.2927879440258</v>
-      </c>
-      <c r="G5" t="n">
-        <v>92.4356879224973</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1.5853975665</v>
-      </c>
-      <c r="I5" t="n">
-        <v>51.1969074219591</v>
-      </c>
-      <c r="J5" t="n">
-        <v>307.181444531755</v>
-      </c>
-      <c r="K5" t="n">
-        <v>160.128481488159</v>
-      </c>
-      <c r="L5" t="n">
-        <v>480.033948665231</v>
-      </c>
-      <c r="M5" t="n">
-        <v>2.99780491392924</v>
-      </c>
-      <c r="N5" t="n">
-        <v>2</v>
-      </c>
-      <c r="O5" t="n">
-        <v>240.016974332616</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1.49890245696462</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0.201464734866797</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="n">
-        <v>10.7642626480086</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1.023976281</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>11.0223496340151</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2.5081109205</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>160.128481488159</v>
-      </c>
-      <c r="L6" t="n">
-        <v>480.033948665231</v>
-      </c>
-      <c r="M6" t="n">
-        <v>2.99780491392924</v>
-      </c>
-      <c r="N6" t="n">
-        <v>2</v>
-      </c>
-      <c r="O6" t="n">
-        <v>240.016974332616</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.49890245696462</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.201464734866797</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B7" t="n">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="n">
-        <v>10.7642626480086</v>
-      </c>
-      <c r="E7" t="n">
-        <v>3.99224556</v>
-      </c>
-      <c r="F7" t="n">
-        <v>10.7642626480086</v>
-      </c>
-      <c r="G7" t="n">
-        <v>42.9735797631862</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1.99612278</v>
-      </c>
-      <c r="I7" t="n">
-        <v>21.4867898815931</v>
-      </c>
-      <c r="J7" t="n">
-        <v>128.920739289559</v>
-      </c>
-      <c r="K7" t="n">
-        <v>160.128481488159</v>
-      </c>
-      <c r="L7" t="n">
-        <v>480.033948665231</v>
-      </c>
-      <c r="M7" t="n">
-        <v>2.99780491392924</v>
-      </c>
-      <c r="N7" t="n">
-        <v>2</v>
-      </c>
-      <c r="O7" t="n">
-        <v>240.016974332616</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1.49890245696462</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0.201464734866797</v>
+        <v>0.0238529980954153</v>
       </c>
     </row>
   </sheetData>
@@ -14674,158 +14776,52 @@
         <v>68</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>32.2927879440258</v>
+        <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.395067932</v>
+        <v>0.140165234</v>
       </c>
       <c r="F2" t="n">
-        <v>21.5285252960172</v>
+        <v>10.7642626480086</v>
       </c>
       <c r="G2" t="n">
-        <v>12.7578449515608</v>
+        <v>1.50877539289559</v>
       </c>
       <c r="H2" t="n">
-        <v>0.341158768</v>
+        <v>0.070082617</v>
       </c>
       <c r="I2" t="n">
-        <v>7.34464516684607</v>
+        <v>0.754387696447793</v>
       </c>
       <c r="J2" t="n">
-        <v>22.0339355005382</v>
+        <v>0.754387696447793</v>
       </c>
       <c r="K2" t="n">
-        <v>21.5118347900969</v>
+        <v>1.50877539289559</v>
       </c>
       <c r="L2" t="n">
-        <v>30.5268749838536</v>
+        <v>0.754387696447793</v>
       </c>
       <c r="M2" t="n">
-        <v>1.41907351379934</v>
+        <v>0.5</v>
       </c>
       <c r="N2" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="O2" t="n">
-        <v>7.6317187459634</v>
+        <v>0.0628656413706494</v>
       </c>
       <c r="P2" t="n">
-        <v>0.354768378449834</v>
+        <v>0.0416666666666667</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0238529980954153</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B3" t="n">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="n">
-        <v>10.7642626480086</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.287249604</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>3.09203018299247</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.406622828</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>21.5118347900969</v>
-      </c>
-      <c r="L3" t="n">
-        <v>30.5268749838536</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.41907351379934</v>
-      </c>
-      <c r="N3" t="n">
-        <v>4</v>
-      </c>
-      <c r="O3" t="n">
-        <v>7.6317187459634</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0.354768378449834</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.0238529980954153</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B4" t="n">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="n">
-        <v>10.7642626480086</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.525996052</v>
-      </c>
-      <c r="F4" t="n">
-        <v>10.7642626480086</v>
-      </c>
-      <c r="G4" t="n">
-        <v>5.6619596555436</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.262998026</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2.8309798277718</v>
-      </c>
-      <c r="J4" t="n">
-        <v>8.49293948331539</v>
-      </c>
-      <c r="K4" t="n">
-        <v>21.5118347900969</v>
-      </c>
-      <c r="L4" t="n">
-        <v>30.5268749838536</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.41907351379934</v>
-      </c>
-      <c r="N4" t="n">
-        <v>4</v>
-      </c>
-      <c r="O4" t="n">
-        <v>7.6317187459634</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.354768378449834</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.0238529980954153</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -14900,52 +14896,264 @@
         <v>69</v>
       </c>
       <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="n">
+        <v>21.5285252960172</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0076</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-44.8510943667026</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.163616792249731</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.0155215405</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-0.696158077682096</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-3.48079038841048</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1.96542087369932</v>
+      </c>
+      <c r="L2" t="n">
+        <v>4.19773335575888</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2.1357936164878</v>
+      </c>
+      <c r="N2" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.74905556489953</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.889914006869917</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>-0.0384484573449006</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" t="n">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="n">
-        <v>10.7642626480086</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.140165234</v>
-      </c>
-      <c r="F2" t="n">
-        <v>10.7642626480086</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1.50877539289559</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.070082617</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.754387696447793</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.754387696447793</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1.50877539289559</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.754387696447793</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N2" t="n">
-        <v>12</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.0628656413706494</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.0416666666666667</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="n">
+        <v>66.3796196627198</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.023443081</v>
+      </c>
+      <c r="F3" t="n">
+        <v>55.6153570147112</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.55614280050233</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.0136231215</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.757654765877288</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3.78827382938644</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.96542087369932</v>
+      </c>
+      <c r="L3" t="n">
+        <v>4.19773335575888</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2.1357936164878</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.74905556489953</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.889914006869917</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>-0.0384484573449006</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10.7642626480086</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.003803162</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-10.7642626480086</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.0409382346609257</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.005705252</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-0.0614128310010764</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-0.307064155005382</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1.96542087369932</v>
+      </c>
+      <c r="L4" t="n">
+        <v>4.19773335575888</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2.1357936164878</v>
+      </c>
+      <c r="N4" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.74905556489953</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.889914006869917</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>-0.0384484573449006</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="n">
+        <v>21.5285252960172</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.007607342</v>
+      </c>
+      <c r="F5" t="n">
+        <v>10.7642626480086</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.163774854682454</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.0057057145</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.0614178094725511</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.307089047362756</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.96542087369932</v>
+      </c>
+      <c r="L5" t="n">
+        <v>4.19773335575888</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2.1357936164878</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.74905556489953</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.889914006869917</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>-0.0384484573449006</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" t="n">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="n">
+        <v>10.7642626480086</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.003804087</v>
+      </c>
+      <c r="F6" t="n">
+        <v>10.7642626480086</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.0409481916038751</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.0019020435</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.0204740958019376</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.102370479009688</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1.96542087369932</v>
+      </c>
+      <c r="L6" t="n">
+        <v>4.19773335575888</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2.1357936164878</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.74905556489953</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.889914006869917</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>-0.0384484573449006</v>
       </c>
     </row>
   </sheetData>
@@ -15026,46 +15234,46 @@
         <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>21.5285252960172</v>
+        <v>26.9106566200215</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0076</v>
+        <v>0.002</v>
       </c>
       <c r="F2" t="n">
-        <v>-44.8510943667026</v>
+        <v>-34.0868317186939</v>
       </c>
       <c r="G2" t="n">
-        <v>0.163616792249731</v>
+        <v>0.0538213132400431</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0155215405</v>
+        <v>0.0160174945</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.696158077682096</v>
+        <v>-0.545985639576606</v>
       </c>
       <c r="J2" t="n">
-        <v>-3.48079038841048</v>
+        <v>-3.27591383745963</v>
       </c>
       <c r="K2" t="n">
-        <v>1.96542087369932</v>
+        <v>9.23774497847148</v>
       </c>
       <c r="L2" t="n">
-        <v>4.19773335575888</v>
+        <v>23.0315574973089</v>
       </c>
       <c r="M2" t="n">
-        <v>2.1357936164878</v>
+        <v>2.49320126838139</v>
       </c>
       <c r="N2" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="O2" t="n">
-        <v>1.74905556489953</v>
+        <v>11.5157787486545</v>
       </c>
       <c r="P2" t="n">
-        <v>0.889914006869917</v>
+        <v>1.2466006341907</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.0384484573449006</v>
+        <v>0.189125195429523</v>
       </c>
     </row>
     <row r="3">
@@ -15079,46 +15287,46 @@
         <v>18</v>
       </c>
       <c r="D3" t="n">
-        <v>66.3796196627198</v>
+        <v>60.9974883387155</v>
       </c>
       <c r="E3" t="n">
-        <v>0.023443081</v>
+        <v>0.030034989</v>
       </c>
       <c r="F3" t="n">
-        <v>55.6153570147112</v>
+        <v>23.3225690706853</v>
       </c>
       <c r="G3" t="n">
-        <v>1.55614280050233</v>
+        <v>1.83205889128095</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0136231215</v>
+        <v>0.043053415</v>
       </c>
       <c r="I3" t="n">
-        <v>0.757654765877288</v>
+        <v>1.00411624506638</v>
       </c>
       <c r="J3" t="n">
-        <v>3.78827382938644</v>
+        <v>6.02469747039828</v>
       </c>
       <c r="K3" t="n">
-        <v>1.96542087369932</v>
+        <v>9.23774497847148</v>
       </c>
       <c r="L3" t="n">
-        <v>4.19773335575888</v>
+        <v>23.0315574973089</v>
       </c>
       <c r="M3" t="n">
-        <v>2.1357936164878</v>
+        <v>2.49320126838139</v>
       </c>
       <c r="N3" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="O3" t="n">
-        <v>1.74905556489953</v>
+        <v>11.5157787486545</v>
       </c>
       <c r="P3" t="n">
-        <v>0.889914006869917</v>
+        <v>1.2466006341907</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.0384484573449006</v>
+        <v>0.189125195429523</v>
       </c>
     </row>
     <row r="4">
@@ -15126,52 +15334,52 @@
         <v>70</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
       </c>
       <c r="D4" t="n">
-        <v>10.7642626480086</v>
+        <v>37.6749192680301</v>
       </c>
       <c r="E4" t="n">
-        <v>0.003803162</v>
+        <v>0.056071841</v>
       </c>
       <c r="F4" t="n">
-        <v>-10.7642626480086</v>
+        <v>5.38213132400431</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0409382346609257</v>
+        <v>2.11250208288482</v>
       </c>
       <c r="H4" t="n">
-        <v>0.005705252</v>
+        <v>0.0807104785</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.0614128310010764</v>
+        <v>0.434394394510226</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.307064155005382</v>
+        <v>2.60636636706136</v>
       </c>
       <c r="K4" t="n">
-        <v>1.96542087369932</v>
+        <v>9.23774497847148</v>
       </c>
       <c r="L4" t="n">
-        <v>4.19773335575888</v>
+        <v>23.0315574973089</v>
       </c>
       <c r="M4" t="n">
-        <v>2.1357936164878</v>
+        <v>2.49320126838139</v>
       </c>
       <c r="N4" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="O4" t="n">
-        <v>1.74905556489953</v>
+        <v>11.5157787486545</v>
       </c>
       <c r="P4" t="n">
-        <v>0.889914006869917</v>
+        <v>1.2466006341907</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.0384484573449006</v>
+        <v>0.189125195429523</v>
       </c>
     </row>
     <row r="5">
@@ -15179,52 +15387,52 @@
         <v>70</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>
       </c>
       <c r="D5" t="n">
+        <v>32.2927879440258</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.105349116</v>
+      </c>
+      <c r="F5" t="n">
         <v>21.5285252960172</v>
       </c>
-      <c r="E5" t="n">
-        <v>0.007607342</v>
-      </c>
-      <c r="F5" t="n">
-        <v>10.7642626480086</v>
-      </c>
       <c r="G5" t="n">
-        <v>0.163774854682454</v>
+        <v>3.40201666307858</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0057057145</v>
+        <v>0.0849483625</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0614178094725511</v>
+        <v>1.82881297093649</v>
       </c>
       <c r="J5" t="n">
-        <v>0.307089047362756</v>
+        <v>10.9728778256189</v>
       </c>
       <c r="K5" t="n">
-        <v>1.96542087369932</v>
+        <v>9.23774497847148</v>
       </c>
       <c r="L5" t="n">
-        <v>4.19773335575888</v>
+        <v>23.0315574973089</v>
       </c>
       <c r="M5" t="n">
-        <v>2.1357936164878</v>
+        <v>2.49320126838139</v>
       </c>
       <c r="N5" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="O5" t="n">
-        <v>1.74905556489953</v>
+        <v>11.5157787486545</v>
       </c>
       <c r="P5" t="n">
-        <v>0.889914006869917</v>
+        <v>1.2466006341907</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.0384484573449006</v>
+        <v>0.189125195429523</v>
       </c>
     </row>
     <row r="6">
@@ -15232,52 +15440,105 @@
         <v>70</v>
       </c>
       <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="n">
+        <v>10.7642626480086</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.064547609</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.694807416576965</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.085344723</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>9.23774497847148</v>
+      </c>
+      <c r="L6" t="n">
+        <v>23.0315574973089</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2.49320126838139</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2</v>
+      </c>
+      <c r="O6" t="n">
+        <v>11.5157787486545</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.2466006341907</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.189125195429523</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" t="n">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="n">
-        <v>10.7642626480086</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.003804087</v>
-      </c>
-      <c r="F6" t="n">
-        <v>10.7642626480086</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.0409481916038751</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.0019020435</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.0204740958019376</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.102370479009688</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1.96542087369932</v>
-      </c>
-      <c r="L6" t="n">
-        <v>4.19773335575888</v>
-      </c>
-      <c r="M6" t="n">
-        <v>2.1357936164878</v>
-      </c>
-      <c r="N6" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.74905556489953</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0.889914006869917</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>-0.0384484573449006</v>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="n">
+        <v>10.7642626480086</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.106141837</v>
+      </c>
+      <c r="F7" t="n">
+        <v>10.7642626480086</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1.14253861141012</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.0530709185</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.571269305705059</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.42761583423036</v>
+      </c>
+      <c r="K7" t="n">
+        <v>9.23774497847148</v>
+      </c>
+      <c r="L7" t="n">
+        <v>23.0315574973089</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2.49320126838139</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2</v>
+      </c>
+      <c r="O7" t="n">
+        <v>11.5157787486545</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.2466006341907</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.189125195429523</v>
       </c>
     </row>
   </sheetData>
@@ -15352,391 +15613,6 @@
         <v>71</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="n">
-        <v>26.9106566200215</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="F2" t="n">
-        <v>-34.0868317186939</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.0538213132400431</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.0160174945</v>
-      </c>
-      <c r="I2" t="n">
-        <v>-0.545985639576606</v>
-      </c>
-      <c r="J2" t="n">
-        <v>-3.27591383745963</v>
-      </c>
-      <c r="K2" t="n">
-        <v>9.23774497847148</v>
-      </c>
-      <c r="L2" t="n">
-        <v>23.0315574973089</v>
-      </c>
-      <c r="M2" t="n">
-        <v>2.49320126838139</v>
-      </c>
-      <c r="N2" t="n">
-        <v>2</v>
-      </c>
-      <c r="O2" t="n">
-        <v>11.5157787486545</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1.2466006341907</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.189125195429523</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="n">
-        <v>60.9974883387155</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.030034989</v>
-      </c>
-      <c r="F3" t="n">
-        <v>23.3225690706853</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1.83205889128095</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.043053415</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1.00411624506638</v>
-      </c>
-      <c r="J3" t="n">
-        <v>6.02469747039828</v>
-      </c>
-      <c r="K3" t="n">
-        <v>9.23774497847148</v>
-      </c>
-      <c r="L3" t="n">
-        <v>23.0315574973089</v>
-      </c>
-      <c r="M3" t="n">
-        <v>2.49320126838139</v>
-      </c>
-      <c r="N3" t="n">
-        <v>2</v>
-      </c>
-      <c r="O3" t="n">
-        <v>11.5157787486545</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1.2466006341907</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.189125195429523</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="n">
-        <v>37.6749192680301</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.056071841</v>
-      </c>
-      <c r="F4" t="n">
-        <v>5.38213132400431</v>
-      </c>
-      <c r="G4" t="n">
-        <v>2.11250208288482</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.0807104785</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.434394394510226</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2.60636636706136</v>
-      </c>
-      <c r="K4" t="n">
-        <v>9.23774497847148</v>
-      </c>
-      <c r="L4" t="n">
-        <v>23.0315574973089</v>
-      </c>
-      <c r="M4" t="n">
-        <v>2.49320126838139</v>
-      </c>
-      <c r="N4" t="n">
-        <v>2</v>
-      </c>
-      <c r="O4" t="n">
-        <v>11.5157787486545</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1.2466006341907</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.189125195429523</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="n">
-        <v>32.2927879440258</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.105349116</v>
-      </c>
-      <c r="F5" t="n">
-        <v>21.5285252960172</v>
-      </c>
-      <c r="G5" t="n">
-        <v>3.40201666307858</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.0849483625</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1.82881297093649</v>
-      </c>
-      <c r="J5" t="n">
-        <v>10.9728778256189</v>
-      </c>
-      <c r="K5" t="n">
-        <v>9.23774497847148</v>
-      </c>
-      <c r="L5" t="n">
-        <v>23.0315574973089</v>
-      </c>
-      <c r="M5" t="n">
-        <v>2.49320126838139</v>
-      </c>
-      <c r="N5" t="n">
-        <v>2</v>
-      </c>
-      <c r="O5" t="n">
-        <v>11.5157787486545</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1.2466006341907</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0.189125195429523</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>71</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="n">
-        <v>10.7642626480086</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.064547609</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.694807416576965</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.085344723</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>9.23774497847148</v>
-      </c>
-      <c r="L6" t="n">
-        <v>23.0315574973089</v>
-      </c>
-      <c r="M6" t="n">
-        <v>2.49320126838139</v>
-      </c>
-      <c r="N6" t="n">
-        <v>2</v>
-      </c>
-      <c r="O6" t="n">
-        <v>11.5157787486545</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.2466006341907</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.189125195429523</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B7" t="n">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="n">
-        <v>10.7642626480086</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.106141837</v>
-      </c>
-      <c r="F7" t="n">
-        <v>10.7642626480086</v>
-      </c>
-      <c r="G7" t="n">
-        <v>1.14253861141012</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.0530709185</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.571269305705059</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3.42761583423036</v>
-      </c>
-      <c r="K7" t="n">
-        <v>9.23774497847148</v>
-      </c>
-      <c r="L7" t="n">
-        <v>23.0315574973089</v>
-      </c>
-      <c r="M7" t="n">
-        <v>2.49320126838139</v>
-      </c>
-      <c r="N7" t="n">
-        <v>2</v>
-      </c>
-      <c r="O7" t="n">
-        <v>11.5157787486545</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1.2466006341907</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0.189125195429523</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B2" t="n">
         <v>29</v>
       </c>
       <c r="C2" t="s">
